--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -262,9 +262,6 @@
     <t>Kazajistán</t>
   </si>
   <si>
-    <t>Azerbaiyán</t>
-  </si>
-  <si>
     <t>Marruecos</t>
   </si>
   <si>
@@ -307,48 +304,18 @@
     <t>Noruega</t>
   </si>
   <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Fiyi, Islas</t>
-  </si>
-  <si>
-    <t>República de Micronesia (EUA)</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>Palestina</t>
   </si>
   <si>
     <t>Irak</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
-    <t>Hong Kong (China)</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Noviembre 2020</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -364,9 +331,6 @@
     <t>Liberia</t>
   </si>
   <si>
-    <t xml:space="preserve">Islas Marshall (EUA)  </t>
-  </si>
-  <si>
     <t>Zimbabue</t>
   </si>
   <si>
@@ -379,19 +343,70 @@
     <t>Luxemburgo</t>
   </si>
   <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Suazilandia</t>
-  </si>
-  <si>
     <t>FUENTE: IIEG, con datos de la Secretaría de Turismo.</t>
+  </si>
+  <si>
+    <t>Diciembre 2020</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islas Marshall (EUA)   </t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Bermudas, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>Bosnia - Herzegovina</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Apátrida</t>
+  </si>
+  <si>
+    <t>Uganda</t>
   </si>
 </sst>
 </file>
@@ -797,11 +812,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -842,10 +855,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>109950</v>
+        <v>163886</v>
       </c>
       <c r="C6" s="4">
-        <v>0.93793183565139771</v>
+        <v>0.93876051902770996</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -853,10 +866,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>4754</v>
+        <v>7283</v>
       </c>
       <c r="C7" s="4">
-        <v>4.0554143488407135E-2</v>
+        <v>4.1717980057001114E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -864,10 +877,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="C8" s="4">
-        <v>2.0985105074942112E-3</v>
+        <v>2.617756137624383E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -875,32 +888,32 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C9" s="4">
-        <v>1.5525566413998604E-3</v>
+        <v>1.1513544013723731E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="C10" s="4">
-        <v>9.1276678722351789E-4</v>
+        <v>8.8786036940291524E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4">
-        <v>8.7864464148879051E-4</v>
+        <v>7.8475399641320109E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -908,98 +921,98 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4">
-        <v>8.0186990089714527E-4</v>
+        <v>7.5038522481918335E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="C13" s="4">
-        <v>8.0186990089714527E-4</v>
+        <v>7.2747271042317152E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4">
-        <v>8.0186990089714527E-4</v>
+        <v>6.5873510902747512E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C15" s="4">
-        <v>7.9333933535963297E-4</v>
+        <v>6.5300700953230262E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="C16" s="4">
-        <v>7.4215617496520281E-4</v>
+        <v>6.4155069412663579E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4">
-        <v>6.6538137616589665E-4</v>
+        <v>6.1863817973062396E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4">
-        <v>5.8860663557425141E-4</v>
+        <v>5.8999756583943963E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4">
-        <v>5.6301505537703633E-4</v>
+        <v>5.785412504337728E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C20" s="4">
-        <v>5.4595398250967264E-4</v>
+        <v>5.6708499323576689E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1007,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4">
-        <v>5.2889290964230895E-4</v>
+        <v>4.639786493498832E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1018,285 +1031,285 @@
         <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C22" s="4">
-        <v>5.1183183677494526E-4</v>
+        <v>4.2388172005303204E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4">
-        <v>4.9477076390758157E-4</v>
+        <v>4.1815359145402908E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C24" s="4">
-        <v>4.8624025657773018E-4</v>
+        <v>3.895129484590143E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4">
-        <v>4.1799599421210587E-4</v>
+        <v>3.7232853355817497E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4">
-        <v>4.1799599421210587E-4</v>
+        <v>3.551441477611661E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C27" s="4">
-        <v>4.0946548688225448E-4</v>
+        <v>3.2650350476615131E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4">
-        <v>3.5828229738399386E-4</v>
+        <v>3.0359096126630902E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4">
-        <v>3.4975176095031202E-4</v>
+        <v>2.6922218967229128E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4">
-        <v>3.1562964431941509E-4</v>
+        <v>2.6349403196945786E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
-        <v>3.1562964431941509E-4</v>
+        <v>2.5776590337045491E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4">
-        <v>3.1562964431941509E-4</v>
+        <v>2.4630964617244899E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>2.6444645482115448E-4</v>
+        <v>2.4630964617244899E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C34" s="4">
-        <v>2.4738538195379078E-4</v>
+        <v>2.1766898862551898E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B35" s="3">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4">
-        <v>2.3885486007202417E-4</v>
+        <v>2.1766898862551898E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B36" s="3">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
-        <v>2.217938017565757E-4</v>
+        <v>1.9475647422950715E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4">
-        <v>2.1326326532289386E-4</v>
+        <v>1.7757207388058305E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C38" s="4">
-        <v>1.5354955394286662E-4</v>
+        <v>1.4320328773465008E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4">
-        <v>1.4501901750918478E-4</v>
+        <v>1.4320328773465008E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B40" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4">
-        <v>1.4501901750918478E-4</v>
+        <v>1.3747515913564712E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B41" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4">
-        <v>1.2795795919373631E-4</v>
+        <v>1.3174701598472893E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B42" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4">
-        <v>1.2795795919373631E-4</v>
+        <v>1.3174701598472893E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4">
-        <v>1.2795795919373631E-4</v>
+        <v>1.1456263018772006E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4">
-        <v>1.2795795919373631E-4</v>
+        <v>1.0883449431275949E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C45" s="4">
-        <v>1.1942743003601208E-4</v>
+        <v>9.7378237114753574E-5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4">
-        <v>1.1942743003601208E-4</v>
+        <v>9.7378237114753574E-5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C47" s="4">
-        <v>1.1089690087828785E-4</v>
+        <v>9.7378237114753574E-5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1304,131 +1317,131 @@
         <v>43</v>
       </c>
       <c r="B48" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C48" s="4">
-        <v>1.0236637172056362E-4</v>
+        <v>8.0193836765829474E-5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B49" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C49" s="4">
-        <v>1.0236637172056362E-4</v>
+        <v>8.0193836765829474E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B50" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" s="4">
-        <v>1.0236637172056362E-4</v>
+        <v>7.4465708166826516E-5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C51" s="9">
-        <v>8.5305306129157543E-5</v>
+        <v>7.4465708166826516E-5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52" s="9">
-        <v>7.6774776971433312E-5</v>
+        <v>6.8737579567823559E-5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C53" s="9">
-        <v>7.6774776971433312E-5</v>
+        <v>6.8737579567823559E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C54" s="9">
-        <v>7.6774776971433312E-5</v>
+        <v>6.3009443692862988E-5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C55" s="9">
-        <v>6.824424781370908E-5</v>
+        <v>6.3009443692862988E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="B56" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C56" s="9">
-        <v>6.824424781370908E-5</v>
+        <v>6.3009443692862988E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B57" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C57" s="9">
-        <v>5.9713715018006042E-5</v>
+        <v>5.728131509386003E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C58" s="9">
-        <v>5.9713715018006042E-5</v>
+        <v>5.728131509386003E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C59" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>5.1553182856878266E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1436,395 +1449,395 @@
         <v>90</v>
       </c>
       <c r="B60" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C60" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>5.1553182856878266E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C61" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>5.1553182856878266E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>4.5825050619896501E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>4.5825050619896501E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B64" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C64" s="9">
-        <v>5.118318586028181E-5</v>
+        <v>4.5825050619896501E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B65" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" s="9">
-        <v>4.2652653064578772E-5</v>
+        <v>4.0096918382914737E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="B66" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" s="9">
-        <v>4.2652653064578772E-5</v>
+        <v>4.0096918382914737E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B67" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" s="9">
-        <v>4.2652653064578772E-5</v>
+        <v>4.0096918382914737E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="9">
-        <v>4.2652653064578772E-5</v>
+        <v>3.436878978391178E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" s="9">
-        <v>4.2652653064578772E-5</v>
+        <v>3.436878978391178E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B70" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.8640657546930015E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2">
         <v>4</v>
       </c>
       <c r="C76" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.2912525309948251E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
       </c>
       <c r="C77" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.2912525309948251E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B78" s="2">
         <v>4</v>
       </c>
       <c r="C78" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.2912525309948251E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B79" s="2">
         <v>4</v>
       </c>
       <c r="C79" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>2.2912525309948251E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B80" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="9">
-        <v>3.412212390685454E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2">
         <v>3</v>
       </c>
       <c r="C81" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2">
         <v>3</v>
       </c>
       <c r="C82" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B83" s="2">
         <v>3</v>
       </c>
       <c r="C83" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2">
         <v>3</v>
       </c>
       <c r="C84" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
         <v>3</v>
       </c>
       <c r="C85" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B86" s="2">
         <v>3</v>
       </c>
       <c r="C86" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2">
         <v>3</v>
       </c>
       <c r="C87" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2">
         <v>3</v>
       </c>
       <c r="C88" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2">
         <v>3</v>
       </c>
       <c r="C89" s="9">
-        <v>2.5591592930140905E-5</v>
+        <v>1.718439489195589E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2">
         <v>2</v>
       </c>
       <c r="C90" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B92" s="2">
         <v>2</v>
       </c>
       <c r="C92" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
       </c>
       <c r="C94" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B95" s="2">
         <v>2</v>
       </c>
       <c r="C95" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1835,276 +1848,331 @@
         <v>2</v>
       </c>
       <c r="C96" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
       </c>
       <c r="C97" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2">
         <v>2</v>
       </c>
       <c r="C98" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2">
         <v>2</v>
       </c>
       <c r="C99" s="9">
-        <v>1.706106195342727E-5</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="B100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B101" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>1.1456262654974125E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
       </c>
       <c r="C103" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B104" s="2">
         <v>1</v>
       </c>
       <c r="C104" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2">
         <v>1</v>
       </c>
       <c r="C105" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2">
         <v>1</v>
       </c>
       <c r="C106" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="2">
         <v>1</v>
       </c>
       <c r="C107" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
       </c>
       <c r="C108" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>
       </c>
       <c r="C112" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2">
         <v>1</v>
       </c>
       <c r="C113" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B117" s="2">
         <v>1</v>
       </c>
       <c r="C117" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B118" s="2">
         <v>1</v>
       </c>
       <c r="C118" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2">
         <v>1</v>
       </c>
       <c r="C119" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" s="2">
         <v>1</v>
       </c>
       <c r="C120" s="9">
-        <v>8.530530976713635E-6</v>
+        <v>5.7281313274870627E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="1" t="s">
-        <v>120</v>
+      <c r="A121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="9">
+        <v>5.7281313274870627E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="9">
+        <v>5.7281313274870627E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="9">
+        <v>5.7281313274870627E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="9">
+        <v>5.7281313274870627E-6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="9">
+        <v>5.7281313274870627E-6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>Lituania</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -259,18 +256,12 @@
     <t>Egipto</t>
   </si>
   <si>
-    <t>Kazajistán</t>
-  </si>
-  <si>
     <t>Marruecos</t>
   </si>
   <si>
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Moldavia</t>
-  </si>
-  <si>
     <t>Arabia Saudita</t>
   </si>
   <si>
@@ -286,12 +277,6 @@
     <t>Grecia</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Nepal</t>
   </si>
   <si>
@@ -304,118 +289,73 @@
     <t>Noruega</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>Irak</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Kirguistán</t>
-  </si>
-  <si>
     <t>Bahamas (Comonwealth)</t>
   </si>
   <si>
     <t>Camboya</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Zimbabue</t>
-  </si>
-  <si>
-    <t>Etiopía</t>
-  </si>
-  <si>
-    <t>San Cristóbal y Nieves</t>
-  </si>
-  <si>
     <t>Luxemburgo</t>
   </si>
   <si>
     <t>FUENTE: IIEG, con datos de la Secretaría de Turismo.</t>
   </si>
   <si>
-    <t>Diciembre 2020</t>
-  </si>
-  <si>
     <t>Finlandia</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Eslovenia</t>
-  </si>
-  <si>
     <t>Túnez</t>
   </si>
   <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islas Marshall (EUA)   </t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>Benín</t>
-  </si>
-  <si>
-    <t>Sudán</t>
-  </si>
-  <si>
-    <t>Bermudas, Islas (R. Unido)</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
     <t>Sierra Leona</t>
   </si>
   <si>
-    <t>Bosnia - Herzegovina</t>
-  </si>
-  <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
-    <t>Apátrida</t>
-  </si>
-  <si>
-    <t>Uganda</t>
+    <t>Enero 2021</t>
+  </si>
+  <si>
+    <t>Hong Kong (China)</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -479,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -491,7 +431,6 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -812,9 +751,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -836,7 +777,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -844,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
@@ -855,10 +796,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>163886</v>
+        <v>89385</v>
       </c>
       <c r="C6" s="4">
-        <v>0.93876051902770996</v>
+        <v>0.92820280790328979</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -866,10 +807,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>7283</v>
+        <v>4515</v>
       </c>
       <c r="C7" s="4">
-        <v>4.1717980057001114E-2</v>
+        <v>4.6885222196578979E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -877,10 +818,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="C8" s="4">
-        <v>2.617756137624383E-3</v>
+        <v>4.6106399968266487E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -888,197 +829,197 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="C9" s="4">
-        <v>1.1513544013723731E-3</v>
+        <v>1.433036639355123E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4">
-        <v>8.8786036940291524E-4</v>
+        <v>1.1215070262551308E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4">
-        <v>7.8475399641320109E-4</v>
+        <v>1.0072793811559677E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C12" s="4">
-        <v>7.5038522481918335E-4</v>
+        <v>8.9305185247212648E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4">
-        <v>7.2747271042317152E-4</v>
+        <v>8.9305185247212648E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="C14" s="4">
-        <v>6.5873510902747512E-4</v>
+        <v>8.8266754755750299E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4">
-        <v>6.5300700953230262E-4</v>
+        <v>8.5151457460597157E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="C16" s="4">
-        <v>6.4155069412663579E-4</v>
+        <v>8.4113021148368716E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C17" s="4">
-        <v>6.1863817973062396E-4</v>
+        <v>7.9959293361753225E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C18" s="4">
-        <v>5.8999756583943963E-4</v>
+        <v>7.7882426558062434E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C19" s="4">
-        <v>5.785412504337728E-4</v>
+        <v>7.3728698771446943E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4">
-        <v>5.6708499323576689E-4</v>
+        <v>6.2305940082296729E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C21" s="4">
-        <v>4.639786493498832E-4</v>
+        <v>6.1267509590834379E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4">
-        <v>4.2388172005303204E-4</v>
+        <v>6.0229079099372029E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4">
-        <v>4.1815359145402908E-4</v>
+        <v>5.6075351312756538E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4">
-        <v>3.895129484590143E-4</v>
+        <v>5.2960054017603397E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4">
-        <v>3.7232853355817497E-4</v>
+        <v>5.0883187213912606E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C26" s="4">
-        <v>3.551441477611661E-4</v>
+        <v>4.3614159221760929E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1086,1093 +1027,884 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4">
-        <v>3.2650350476615131E-4</v>
+        <v>4.1537295328453183E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4">
-        <v>3.0359096126630902E-4</v>
+        <v>3.6345134139992297E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>2.6922218967229128E-4</v>
+        <v>3.3229836844839156E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4">
-        <v>2.6349403196945786E-4</v>
+        <v>3.219140344299376E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4">
-        <v>2.5776590337045491E-4</v>
+        <v>2.8037675656378269E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4">
-        <v>2.4630964617244899E-4</v>
+        <v>2.5960808852687478E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4">
-        <v>2.4630964617244899E-4</v>
+        <v>2.3883944959379733E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4">
-        <v>2.1766898862551898E-4</v>
+        <v>2.0768647664226592E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4">
-        <v>2.1766898862551898E-4</v>
+        <v>1.9730215717572719E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4">
-        <v>1.9475647422950715E-4</v>
+        <v>1.9730215717572719E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4">
-        <v>1.7757207388058305E-4</v>
+        <v>1.8691782315727323E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C38" s="4">
-        <v>1.4320328773465008E-4</v>
+        <v>1.6614918422419578E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B39" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C39" s="4">
-        <v>1.4320328773465008E-4</v>
+        <v>1.5576485020574182E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4">
-        <v>1.3747515913564712E-4</v>
+        <v>1.5576485020574182E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B41" s="3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C41" s="4">
-        <v>1.3174701598472893E-4</v>
+        <v>1.3499621127266437E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B42" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C42" s="4">
-        <v>1.3174701598472893E-4</v>
+        <v>1.2461189180612564E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B43" s="3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4">
-        <v>1.1456263018772006E-4</v>
+        <v>1.142275650636293E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B44" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4">
-        <v>1.0883449431275949E-4</v>
+        <v>1.142275650636293E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4">
-        <v>9.7378237114753574E-5</v>
+        <v>1.142275650636293E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4">
-        <v>9.7378237114753574E-5</v>
+        <v>1.142275650636293E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C47" s="4">
-        <v>9.7378237114753574E-5</v>
+        <v>1.0384323832113296E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B48" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C48" s="4">
-        <v>8.0193836765829474E-5</v>
+        <v>1.0384323832113296E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B49" s="3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49" s="4">
-        <v>8.0193836765829474E-5</v>
+        <v>9.3458911578636616E-5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B50" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C50" s="4">
-        <v>7.4465708166826516E-5</v>
+        <v>9.3458911578636616E-5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="2">
-        <v>13</v>
-      </c>
-      <c r="C51" s="9">
-        <v>7.4465708166826516E-5</v>
+        <v>46</v>
+      </c>
+      <c r="B51" s="3">
+        <v>8</v>
+      </c>
+      <c r="C51" s="4">
+        <v>8.3074592112097889E-5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="2">
-        <v>12</v>
-      </c>
-      <c r="C52" s="9">
-        <v>6.8737579567823559E-5</v>
+        <v>24</v>
+      </c>
+      <c r="B52" s="3">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4">
+        <v>8.3074592112097889E-5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="2">
-        <v>12</v>
-      </c>
-      <c r="C53" s="9">
-        <v>6.8737579567823559E-5</v>
+        <v>49</v>
+      </c>
+      <c r="B53" s="3">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4">
+        <v>7.2690265369601548E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="2">
-        <v>11</v>
-      </c>
-      <c r="C54" s="9">
-        <v>6.3009443692862988E-5</v>
+        <v>57</v>
+      </c>
+      <c r="B54" s="3">
+        <v>7</v>
+      </c>
+      <c r="C54" s="4">
+        <v>7.2690265369601548E-5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B55" s="2">
-        <v>11</v>
-      </c>
-      <c r="C55" s="9">
-        <v>6.3009443692862988E-5</v>
+        <v>62</v>
+      </c>
+      <c r="B55" s="3">
+        <v>7</v>
+      </c>
+      <c r="C55" s="4">
+        <v>7.2690265369601548E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B56" s="2">
-        <v>11</v>
-      </c>
-      <c r="C56" s="9">
-        <v>6.3009443692862988E-5</v>
+        <v>60</v>
+      </c>
+      <c r="B56" s="3">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4">
+        <v>7.2690265369601548E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="2">
-        <v>10</v>
-      </c>
-      <c r="C57" s="9">
-        <v>5.728131509386003E-5</v>
+        <v>58</v>
+      </c>
+      <c r="B57" s="3">
+        <v>6</v>
+      </c>
+      <c r="C57" s="4">
+        <v>6.230594590306282E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2">
-        <v>10</v>
-      </c>
-      <c r="C58" s="9">
-        <v>5.728131509386003E-5</v>
+        <v>72</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5.1921619160566479E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59" s="2">
-        <v>9</v>
-      </c>
-      <c r="C59" s="9">
-        <v>5.1553182856878266E-5</v>
+        <v>55</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5.1921619160566479E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="2">
-        <v>9</v>
-      </c>
-      <c r="C60" s="9">
-        <v>5.1553182856878266E-5</v>
+        <v>73</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5.1921619160566479E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="2">
-        <v>9</v>
-      </c>
-      <c r="C61" s="9">
-        <v>5.1553182856878266E-5</v>
+        <v>45</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5.1921619160566479E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="2">
-        <v>8</v>
-      </c>
-      <c r="C62" s="9">
-        <v>4.5825050619896501E-5</v>
+        <v>56</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5.1921619160566479E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="2">
-        <v>8</v>
-      </c>
-      <c r="C63" s="9">
-        <v>4.5825050619896501E-5</v>
+        <v>68</v>
+      </c>
+      <c r="B63" s="3">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4">
+        <v>4.1537296056048945E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="2">
-        <v>8</v>
-      </c>
-      <c r="C64" s="9">
-        <v>4.5825050619896501E-5</v>
+        <v>52</v>
+      </c>
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4.1537296056048945E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="2">
-        <v>7</v>
-      </c>
-      <c r="C65" s="9">
-        <v>4.0096918382914737E-5</v>
+      <c r="B65" s="3">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4">
+        <v>4.1537296056048945E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B66" s="2">
-        <v>7</v>
-      </c>
-      <c r="C66" s="9">
-        <v>4.0096918382914737E-5</v>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <v>4</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4.1537296056048945E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="2">
-        <v>7</v>
-      </c>
-      <c r="C67" s="9">
-        <v>4.0096918382914737E-5</v>
+        <v>86</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
-        <v>6</v>
-      </c>
-      <c r="C68" s="9">
-        <v>3.436878978391178E-5</v>
+        <v>83</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" s="2">
-        <v>6</v>
-      </c>
-      <c r="C69" s="9">
-        <v>3.436878978391178E-5</v>
+        <v>91</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3</v>
+      </c>
+      <c r="C69" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="2">
-        <v>5</v>
-      </c>
-      <c r="C70" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="2">
-        <v>5</v>
-      </c>
-      <c r="C71" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>79</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3</v>
+      </c>
+      <c r="C71" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="2">
-        <v>5</v>
-      </c>
-      <c r="C72" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>3</v>
+      </c>
+      <c r="C72" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="2">
-        <v>5</v>
-      </c>
-      <c r="C73" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>96</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4">
+        <v>3.115297295153141E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" s="2">
-        <v>5</v>
-      </c>
-      <c r="C74" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>93</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2</v>
+      </c>
+      <c r="C74" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="2">
-        <v>5</v>
-      </c>
-      <c r="C75" s="9">
-        <v>2.8640657546930015E-5</v>
+        <v>50</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="2">
-        <v>4</v>
-      </c>
-      <c r="C76" s="9">
-        <v>2.2912525309948251E-5</v>
+        <v>67</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="2">
-        <v>4</v>
-      </c>
-      <c r="C77" s="9">
-        <v>2.2912525309948251E-5</v>
+        <v>71</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" s="2">
-        <v>4</v>
-      </c>
-      <c r="C78" s="9">
-        <v>2.2912525309948251E-5</v>
+        <v>48</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B79" s="2">
-        <v>4</v>
-      </c>
-      <c r="C79" s="9">
-        <v>2.2912525309948251E-5</v>
+        <v>66</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="2">
-        <v>3</v>
-      </c>
-      <c r="C80" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>53</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="2">
-        <v>3</v>
-      </c>
-      <c r="C81" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>89</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>87</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>2.0768648028024472E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B83" s="2">
-        <v>3</v>
-      </c>
-      <c r="C83" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>97</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B84" s="2">
-        <v>3</v>
-      </c>
-      <c r="C84" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>98</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="2">
-        <v>3</v>
-      </c>
-      <c r="C85" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>99</v>
+      </c>
+      <c r="B85" s="3">
+        <v>1</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="2">
-        <v>3</v>
-      </c>
-      <c r="C86" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>100</v>
+      </c>
+      <c r="B86" s="3">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" s="2">
-        <v>3</v>
-      </c>
-      <c r="C87" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>75</v>
+      </c>
+      <c r="B87" s="3">
+        <v>1</v>
+      </c>
+      <c r="C87" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="2">
-        <v>3</v>
-      </c>
-      <c r="C88" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>101</v>
+      </c>
+      <c r="B88" s="3">
+        <v>1</v>
+      </c>
+      <c r="C88" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B89" s="2">
-        <v>3</v>
-      </c>
-      <c r="C89" s="9">
-        <v>1.718439489195589E-5</v>
+        <v>80</v>
+      </c>
+      <c r="B89" s="3">
+        <v>1</v>
+      </c>
+      <c r="C89" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" s="2">
-        <v>2</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>76</v>
+      </c>
+      <c r="B90" s="3">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="2">
-        <v>2</v>
-      </c>
-      <c r="C91" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>102</v>
+      </c>
+      <c r="B91" s="3">
+        <v>1</v>
+      </c>
+      <c r="C91" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" s="2">
-        <v>2</v>
-      </c>
-      <c r="C92" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>92</v>
+      </c>
+      <c r="B92" s="3">
+        <v>1</v>
+      </c>
+      <c r="C92" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="2">
-        <v>2</v>
-      </c>
-      <c r="C93" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>77</v>
+      </c>
+      <c r="B93" s="3">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="2">
-        <v>2</v>
-      </c>
-      <c r="C94" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>74</v>
+      </c>
+      <c r="B94" s="3">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="2">
-        <v>2</v>
-      </c>
-      <c r="C95" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>103</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1</v>
+      </c>
+      <c r="C95" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B96" s="2">
-        <v>2</v>
-      </c>
-      <c r="C96" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>63</v>
+      </c>
+      <c r="B96" s="3">
+        <v>1</v>
+      </c>
+      <c r="C96" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B97" s="2">
-        <v>2</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>94</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
+      </c>
+      <c r="C97" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98" s="2">
-        <v>2</v>
-      </c>
-      <c r="C98" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>81</v>
+      </c>
+      <c r="B98" s="3">
+        <v>1</v>
+      </c>
+      <c r="C98" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="2">
-        <v>2</v>
-      </c>
-      <c r="C99" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>82</v>
+      </c>
+      <c r="B99" s="3">
+        <v>1</v>
+      </c>
+      <c r="C99" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="2">
-        <v>2</v>
-      </c>
-      <c r="C100" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>61</v>
+      </c>
+      <c r="B100" s="3">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="2">
-        <v>2</v>
-      </c>
-      <c r="C101" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>88</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" s="2">
-        <v>2</v>
-      </c>
-      <c r="C102" s="9">
-        <v>1.1456262654974125E-5</v>
+        <v>104</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B103" s="2">
-        <v>1</v>
-      </c>
-      <c r="C103" s="9">
-        <v>5.7281313274870627E-6</v>
+        <v>105</v>
+      </c>
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B104" s="2">
-        <v>1</v>
-      </c>
-      <c r="C104" s="9">
-        <v>5.7281313274870627E-6</v>
+        <v>106</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B105" s="2">
-        <v>1</v>
-      </c>
-      <c r="C105" s="9">
-        <v>5.7281313274870627E-6</v>
+        <v>78</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B106" s="2">
-        <v>1</v>
-      </c>
-      <c r="C106" s="9">
-        <v>5.7281313274870627E-6</v>
+        <v>54</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.0384324014012236E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" s="2">
-        <v>1</v>
-      </c>
-      <c r="C107" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="2">
-        <v>1</v>
-      </c>
-      <c r="C114" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="2">
-        <v>1</v>
-      </c>
-      <c r="C116" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1</v>
-      </c>
-      <c r="C117" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B118" s="2">
-        <v>1</v>
-      </c>
-      <c r="C118" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B119" s="2">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1</v>
-      </c>
-      <c r="C120" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1</v>
-      </c>
-      <c r="C121" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B122" s="2">
-        <v>1</v>
-      </c>
-      <c r="C122" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="2">
-        <v>1</v>
-      </c>
-      <c r="C123" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B124" s="2">
-        <v>1</v>
-      </c>
-      <c r="C124" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B125" s="2">
-        <v>1</v>
-      </c>
-      <c r="C125" s="9">
-        <v>5.7281313274870627E-6</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="1" t="s">
-        <v>104</v>
+      <c r="A107" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>Islandia</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -256,24 +253,15 @@
     <t>Egipto</t>
   </si>
   <si>
-    <t>Marruecos</t>
-  </si>
-  <si>
     <t>Uzbekistán</t>
   </si>
   <si>
     <t>Arabia Saudita</t>
   </si>
   <si>
-    <t>Líbano</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Grecia</t>
   </si>
   <si>
@@ -307,49 +295,49 @@
     <t>Finlandia</t>
   </si>
   <si>
-    <t>Túnez</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Sierra Leona</t>
-  </si>
-  <si>
-    <t>Enero 2021</t>
-  </si>
-  <si>
     <t>Hong Kong (China)</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
+    <t>Febrero 2021</t>
+  </si>
+  <si>
+    <t>Kazajistán</t>
+  </si>
+  <si>
+    <t>Lituania</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Moldavia</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Turcos y Caicos, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Bermudas, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Dominica (Comonwealth)</t>
+  </si>
+  <si>
+    <t>Ghana</t>
   </si>
 </sst>
 </file>
@@ -751,11 +739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -777,7 +763,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -785,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
@@ -796,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>89385</v>
+        <v>68201</v>
       </c>
       <c r="C6" s="4">
-        <v>0.92820280790328979</v>
+        <v>0.97029405832290649</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -807,10 +793,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>4515</v>
+        <v>493</v>
       </c>
       <c r="C7" s="4">
-        <v>4.6885222196578979E-2</v>
+        <v>7.013899739831686E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -818,10 +804,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>444</v>
+        <v>201</v>
       </c>
       <c r="C8" s="4">
-        <v>4.6106399968266487E-3</v>
+        <v>2.859622472897172E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -829,197 +815,197 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4">
-        <v>1.433036639355123E-3</v>
+        <v>1.4084707945585251E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B10" s="3">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4">
-        <v>1.1215070262551308E-3</v>
+        <v>9.6743443282321095E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4">
-        <v>1.0072793811559677E-3</v>
+        <v>8.962995489127934E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4">
-        <v>8.9305185247212648E-4</v>
+        <v>8.2516466500237584E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4">
-        <v>8.9305185247212648E-4</v>
+        <v>7.8248372301459312E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4">
-        <v>8.8266754755750299E-4</v>
+        <v>7.8248372301459312E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4">
-        <v>8.5151457460597157E-4</v>
+        <v>7.3980283923447132E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C16" s="4">
-        <v>8.4113021148368716E-4</v>
+        <v>7.2557583916932344E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4">
-        <v>7.9959293361753225E-4</v>
+        <v>6.971218972466886E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4">
-        <v>7.7882426558062434E-4</v>
+        <v>6.5444095525890589E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4">
-        <v>7.3728698771446943E-4</v>
+        <v>6.4021395519375801E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4">
-        <v>6.2305940082296729E-4</v>
+        <v>6.4021395519375801E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4">
-        <v>6.1267509590834379E-4</v>
+        <v>6.2598701333627105E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4">
-        <v>6.0229079099372029E-4</v>
+        <v>5.9753301320597529E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C23" s="4">
-        <v>5.6075351312756538E-4</v>
+        <v>5.8330607134848833E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4">
-        <v>5.2960054017603397E-4</v>
+        <v>5.1217118743807077E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4">
-        <v>5.0883187213912606E-4</v>
+        <v>4.6949024545028806E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4">
-        <v>4.3614159221760929E-4</v>
+        <v>4.1258233250118792E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1027,21 +1013,21 @@
         <v>26</v>
       </c>
       <c r="B27" s="3">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
-        <v>4.1537295328453183E-4</v>
+        <v>3.6990141961723566E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4">
-        <v>3.6345134139992297E-4</v>
+        <v>3.2722047762945294E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1049,65 +1035,65 @@
         <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
-        <v>3.3229836844839156E-4</v>
+        <v>3.2722047762945294E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C30" s="4">
-        <v>3.219140344299376E-4</v>
+        <v>3.1299350666813552E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4">
-        <v>2.8037675656378269E-4</v>
+        <v>3.1299350666813552E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4">
-        <v>2.5960808852687478E-4</v>
+        <v>2.9876650660298765E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4">
-        <v>2.3883944959379733E-4</v>
+        <v>2.7031256468035281E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4">
-        <v>2.0768647664226592E-4</v>
+        <v>2.7031256468035281E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1115,54 +1101,54 @@
         <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4">
-        <v>1.9730215717572719E-4</v>
+        <v>2.4185860820580274E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4">
-        <v>1.9730215717572719E-4</v>
+        <v>2.1340465173125267E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B37" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4">
-        <v>1.8691782315727323E-4</v>
+        <v>1.7072372429538518E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B38" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C38" s="4">
-        <v>1.6614918422419578E-4</v>
+        <v>1.7072372429538518E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C39" s="4">
-        <v>1.5576485020574182E-4</v>
+        <v>1.5649675333406776E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1170,219 +1156,219 @@
         <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4">
-        <v>1.5576485020574182E-4</v>
+        <v>1.4226976782083511E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C41" s="4">
-        <v>1.3499621127266437E-4</v>
+        <v>1.4226976782083511E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B42" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="4">
-        <v>1.2461189180612564E-4</v>
+        <v>1.4226976782083511E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B43" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="4">
-        <v>1.142275650636293E-4</v>
+        <v>1.4226976782083511E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B44" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" s="4">
-        <v>1.142275650636293E-4</v>
+        <v>1.2804279685951769E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="4">
-        <v>1.142275650636293E-4</v>
+        <v>1.2804279685951769E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" s="4">
-        <v>1.142275650636293E-4</v>
+        <v>1.2804279685951769E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B47" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="4">
-        <v>1.0384323832113296E-4</v>
+        <v>1.2804279685951769E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
-        <v>1.0384323832113296E-4</v>
+        <v>1.1381581862224266E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4">
-        <v>9.3458911578636616E-5</v>
+        <v>1.1381581862224266E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" s="4">
-        <v>9.3458911578636616E-5</v>
+        <v>1.1381581862224266E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" s="4">
-        <v>8.3074592112097889E-5</v>
+        <v>9.9588840384967625E-5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B52" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="4">
-        <v>8.3074592112097889E-5</v>
+        <v>9.9588840384967625E-5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B53" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="4">
-        <v>7.2690265369601548E-5</v>
+        <v>8.5361862147692591E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B54" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="4">
-        <v>7.2690265369601548E-5</v>
+        <v>8.5361862147692591E-5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B55" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="4">
-        <v>7.2690265369601548E-5</v>
+        <v>8.5361862147692591E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" s="4">
-        <v>7.2690265369601548E-5</v>
+        <v>8.5361862147692591E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" s="4">
-        <v>6.230594590306282E-5</v>
+        <v>7.1134883910417557E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>5</v>
       </c>
       <c r="C58" s="4">
-        <v>5.1921619160566479E-5</v>
+        <v>7.1134883910417557E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4">
-        <v>5.1921619160566479E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1390,521 +1376,477 @@
         <v>73</v>
       </c>
       <c r="B60" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4">
-        <v>5.1921619160566479E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4">
-        <v>5.1921619160566479E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4">
-        <v>5.1921619160566479E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B63" s="3">
         <v>4</v>
       </c>
       <c r="C63" s="4">
-        <v>4.1537296056048945E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B64" s="3">
         <v>4</v>
       </c>
       <c r="C64" s="4">
-        <v>4.1537296056048945E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B65" s="3">
         <v>4</v>
       </c>
       <c r="C65" s="4">
-        <v>4.1537296056048945E-5</v>
+        <v>5.690790931112133E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B66" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="4">
-        <v>4.1537296056048945E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3">
         <v>3</v>
       </c>
       <c r="C67" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
       </c>
       <c r="C68" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3">
         <v>3</v>
       </c>
       <c r="C69" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
       </c>
       <c r="C70" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B71" s="3">
         <v>3</v>
       </c>
       <c r="C71" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B72" s="3">
         <v>3</v>
       </c>
       <c r="C72" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
       </c>
       <c r="C73" s="4">
-        <v>3.115297295153141E-5</v>
+        <v>4.2680931073846295E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B74" s="3">
         <v>2</v>
       </c>
       <c r="C74" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>2</v>
       </c>
       <c r="C75" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3">
         <v>2</v>
       </c>
       <c r="C76" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <v>2</v>
       </c>
       <c r="C77" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B78" s="3">
         <v>2</v>
       </c>
       <c r="C78" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79" s="3">
         <v>2</v>
       </c>
       <c r="C79" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B80" s="3">
         <v>2</v>
       </c>
       <c r="C80" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B81" s="3">
         <v>2</v>
       </c>
       <c r="C81" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B82" s="3">
         <v>2</v>
       </c>
       <c r="C82" s="4">
-        <v>2.0768648028024472E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B85" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>2.8453954655560665E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
       </c>
       <c r="C86" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
       </c>
       <c r="C87" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
       </c>
       <c r="C88" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
       </c>
       <c r="C89" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
       </c>
       <c r="C90" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
       </c>
       <c r="C91" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
       </c>
       <c r="C92" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
       </c>
       <c r="C93" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
       </c>
       <c r="C100" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
       </c>
       <c r="C102" s="4">
-        <v>1.0384324014012236E-5</v>
+        <v>1.4226977327780332E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" s="3">
-        <v>1</v>
-      </c>
-      <c r="C103" s="4">
-        <v>1.0384324014012236E-5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1</v>
-      </c>
-      <c r="C104" s="4">
-        <v>1.0384324014012236E-5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="4">
-        <v>1.0384324014012236E-5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="4">
-        <v>1.0384324014012236E-5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1" t="s">
-        <v>90</v>
+      <c r="A103" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Egipto</t>
   </si>
   <si>
-    <t>Uzbekistán</t>
-  </si>
-  <si>
     <t>Arabia Saudita</t>
   </si>
   <si>
@@ -277,15 +274,9 @@
     <t>Noruega</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Bahamas (Comonwealth)</t>
   </si>
   <si>
-    <t>Camboya</t>
-  </si>
-  <si>
     <t>Luxemburgo</t>
   </si>
   <si>
@@ -298,18 +289,12 @@
     <t>Hong Kong (China)</t>
   </si>
   <si>
-    <t>Febrero 2021</t>
-  </si>
-  <si>
     <t>Kazajistán</t>
   </si>
   <si>
     <t>Lituania</t>
   </si>
   <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
     <t>Moldavia</t>
   </si>
   <si>
@@ -319,25 +304,79 @@
     <t>Barbados</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Turcos y Caicos, Islas (R. Unido)</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Bermudas, Islas (R. Unido)</t>
-  </si>
-  <si>
     <t>Irak</t>
   </si>
   <si>
-    <t>Dominica (Comonwealth)</t>
-  </si>
-  <si>
     <t>Ghana</t>
+  </si>
+  <si>
+    <t>Marzo 2021</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Islandia</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>Bosnia - Herzegovina</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Sudán</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Fiyi, Islas</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Tayikistán</t>
   </si>
 </sst>
 </file>
@@ -739,9 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:C115"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -763,7 +804,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -771,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
@@ -782,10 +823,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>68201</v>
+        <v>122305</v>
       </c>
       <c r="C6" s="4">
-        <v>0.97029405832290649</v>
+        <v>0.97105991840362549</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -793,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>493</v>
+        <v>758</v>
       </c>
       <c r="C7" s="4">
-        <v>7.013899739831686E-3</v>
+        <v>6.0182614251971245E-3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -804,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="C8" s="4">
-        <v>2.859622472897172E-3</v>
+        <v>1.9452163251116872E-3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -815,219 +856,219 @@
         <v>3</v>
       </c>
       <c r="B9" s="3">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="C9" s="4">
-        <v>1.4084707945585251E-3</v>
+        <v>1.6911473358049989E-3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4">
-        <v>9.6743443282321095E-4</v>
+        <v>1.627629972063005E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B11" s="3">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4">
-        <v>8.962995489127934E-4</v>
+        <v>8.9718139497563243E-4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4">
-        <v>8.2516466500237584E-4</v>
+        <v>8.0984516534954309E-4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="C13" s="4">
-        <v>7.8248372301459312E-4</v>
+        <v>7.6220720075070858E-4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="C14" s="4">
-        <v>7.8248372301459312E-4</v>
+        <v>7.2250893572345376E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4">
-        <v>7.3980283923447132E-4</v>
+        <v>7.1456929435953498E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C16" s="4">
-        <v>7.2557583916932344E-4</v>
+        <v>7.1456929435953498E-4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4">
-        <v>6.971218972466886E-4</v>
+        <v>6.5899168839678168E-4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4">
-        <v>6.5444095525890589E-4</v>
+        <v>6.1135372379794717E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4">
-        <v>6.4021395519375801E-4</v>
+        <v>5.8753474149852991E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C20" s="4">
-        <v>6.4021395519375801E-4</v>
+        <v>5.4783641826361418E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C21" s="4">
-        <v>6.2598701333627105E-4</v>
+        <v>5.398967768996954E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4">
-        <v>5.9753301320597529E-4</v>
+        <v>5.1607779460027814E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4">
-        <v>5.8330607134848833E-4</v>
+        <v>5.1607779460027814E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C24" s="4">
-        <v>5.1217118743807077E-4</v>
+        <v>5.0019851187244058E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B25" s="3">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4">
-        <v>4.6949024545028806E-4</v>
+        <v>4.9225881230086088E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C26" s="4">
-        <v>4.1258233250118792E-4</v>
+        <v>4.6050018863752484E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C27" s="4">
-        <v>3.6990141961723566E-4</v>
+        <v>4.4462087680585682E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C28" s="4">
-        <v>3.2722047762945294E-4</v>
+        <v>4.0492258267477155E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1035,164 +1076,164 @@
         <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C29" s="4">
-        <v>3.2722047762945294E-4</v>
+        <v>3.7316395901143551E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4">
-        <v>3.1299350666813552E-4</v>
+        <v>3.3346566488035023E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4">
-        <v>3.1299350666813552E-4</v>
+        <v>3.1758635304868221E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B32" s="3">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C32" s="4">
-        <v>2.9876650660298765E-4</v>
+        <v>3.0170701211318374E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C33" s="4">
-        <v>2.7031256468035281E-4</v>
+        <v>2.8582770028151572E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C34" s="4">
-        <v>2.7031256468035281E-4</v>
+        <v>2.7788805891759694E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4">
-        <v>2.4185860820580274E-4</v>
+        <v>2.699483884498477E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4">
-        <v>2.1340465173125267E-4</v>
+        <v>2.3025009431876242E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C37" s="4">
-        <v>1.7072372429538518E-4</v>
+        <v>2.143707824870944E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="3">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4">
-        <v>1.7072372429538518E-4</v>
+        <v>2.143707824870944E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4">
-        <v>1.5649675333406776E-4</v>
+        <v>1.9849147065542638E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C40" s="4">
-        <v>1.4226976782083511E-4</v>
+        <v>1.9055180018767715E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="3">
-        <v>10</v>
-      </c>
       <c r="C41" s="4">
-        <v>1.4226976782083511E-4</v>
+        <v>1.8261214427184314E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>1.4226976782083511E-4</v>
+        <v>1.7467248835600913E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4">
-        <v>1.4226976782083511E-4</v>
+        <v>1.6673283244017512E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1200,296 +1241,296 @@
         <v>45</v>
       </c>
       <c r="B44" s="3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4">
-        <v>1.2804279685951769E-4</v>
+        <v>1.5085350605659187E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C45" s="4">
-        <v>1.2804279685951769E-4</v>
+        <v>1.4291385014075786E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C46" s="4">
-        <v>1.2804279685951769E-4</v>
+        <v>1.3497419422492385E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C47" s="4">
-        <v>1.2804279685951769E-4</v>
+        <v>1.2703453830908984E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B48" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C48" s="4">
-        <v>1.1381581862224266E-4</v>
+        <v>1.1909488239325583E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B49" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C49" s="4">
-        <v>1.1381581862224266E-4</v>
+        <v>1.1909488239325583E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" s="4">
-        <v>1.1381581862224266E-4</v>
+        <v>1.032155632856302E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B51" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C51" s="4">
-        <v>9.9588840384967625E-5</v>
+        <v>1.032155632856302E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C52" s="4">
-        <v>9.9588840384967625E-5</v>
+        <v>1.032155632856302E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B53" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C53" s="4">
-        <v>8.5361862147692591E-5</v>
+        <v>9.5275900093838573E-5</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B54" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C54" s="4">
-        <v>8.5361862147692591E-5</v>
+        <v>8.7336244178004563E-5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B55" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C55" s="4">
-        <v>8.5361862147692591E-5</v>
+        <v>8.7336244178004563E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B56" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4">
-        <v>8.5361862147692591E-5</v>
+        <v>8.7336244178004563E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57" s="4">
-        <v>7.1134883910417557E-5</v>
+        <v>7.9396588262170553E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58" s="4">
-        <v>7.1134883910417557E-5</v>
+        <v>7.9396588262170553E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B59" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C59" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>7.1456925070378929E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>7.1456925070378929E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C61" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>6.351726915454492E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B62" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C62" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>6.351726915454492E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C63" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>5.5577609600732103E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B64" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C64" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>5.5577609600732103E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4">
-        <v>5.690790931112133E-5</v>
+        <v>4.7637950046919286E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B66" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C66" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>4.7637950046919286E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B67" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C67" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>4.7637950046919286E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B68" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C68" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="B69" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C69" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1497,356 +1538,499 @@
         <v>50</v>
       </c>
       <c r="B71" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C71" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B72" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C72" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B73" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C73" s="4">
-        <v>4.2680931073846295E-5</v>
+        <v>3.9698294131085277E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B75" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="B78" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B79" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B81" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>3.175863457727246E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B82" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>2.3818975023459643E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>2.3818975023459643E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>2.3818975023459643E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
       </c>
       <c r="C85" s="4">
-        <v>2.8453954655560665E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B88" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B89" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B90" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B91" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B93" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>1.587931728863623E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
       <c r="C94" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
       </c>
       <c r="C95" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
       </c>
       <c r="C96" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
       </c>
       <c r="C97" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
       <c r="C98" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
       <c r="C99" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
       </c>
       <c r="C100" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
       </c>
       <c r="C101" s="4">
-        <v>1.4226977327780332E-5</v>
+        <v>7.939658644318115E-6</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1</v>
+      </c>
+      <c r="C102" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="3">
-        <v>1</v>
-      </c>
-      <c r="C102" s="4">
-        <v>1.4226977327780332E-5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="3">
+        <v>1</v>
+      </c>
+      <c r="C103" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="3">
+        <v>1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" s="3">
+        <v>1</v>
+      </c>
+      <c r="C105" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1</v>
+      </c>
+      <c r="C106" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <v>7.939658644318115E-6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\01 Fichas\Turismo\Entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Nacionalidad de los visitantes extranjeros por vía aérea en Jalisco</t>
   </si>
   <si>
+    <t>Personas</t>
+  </si>
+  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -295,21 +298,12 @@
     <t>Moldavia</t>
   </si>
   <si>
-    <t>Argelia</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>Irak</t>
   </si>
   <si>
     <t>Ghana</t>
   </si>
   <si>
-    <t>Marzo 2021</t>
-  </si>
-  <si>
     <t>Líbano</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>Islandia</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
     <t>Zimbabue</t>
   </si>
   <si>
@@ -331,36 +322,15 @@
     <t>Guyana</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Benín</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Sudán</t>
-  </si>
-  <si>
-    <t>Botsuana</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
-    <t>Omán</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
@@ -376,10 +346,94 @@
     <t>Tayikistán</t>
   </si>
   <si>
-    <t>Última actualización:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05/07/2021</t>
+    <t>Abril 2021</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>República de Micronesia (EUA)</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>Apátrida</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Guinea Ecuatorial</t>
+  </si>
+  <si>
+    <t>Sierra Leona</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Congo, Rep. Dem.</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Bermudas, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Costa de Marfil</t>
+  </si>
+  <si>
+    <t>Marruecos</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Dominica (Comonwealth)</t>
+  </si>
+  <si>
+    <t>Uzbekistán</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
   </si>
 </sst>
 </file>
@@ -449,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,9 +514,6 @@
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,8 +550,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2743206</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>153926</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,13 +884,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:C122"/>
+  <dimension ref="A8:C142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -847,1248 +898,1454 @@
     <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:3" ht="15" customHeight="1">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>122305</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.97105991840362549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
+        <v>130102</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.96765363216400146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3">
-        <v>758</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.0182614251971245E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3">
+        <v>871</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.4781964756548405E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <v>245</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1.9452163251116872E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="3">
+        <v>377</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.8039955068379641E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
-        <v>213</v>
-      </c>
-      <c r="C15" s="4">
-        <v>1.6911473358049989E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" s="3">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="C16" s="4">
-        <v>1.627629972063005E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>1.7775992164388299E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4">
-        <v>8.9718139497563243E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>1.1974623193964362E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="3">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C18" s="4">
-        <v>8.0984516534954309E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+        <v>1.1082104174420238E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9.5945736393332481E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>128</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9.5201970543712378E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>127</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.4458204694092274E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9.371443884447217E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3">
+        <v>116</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8.6276786169037223E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
-        <v>96</v>
-      </c>
-      <c r="C19" s="4">
-        <v>7.6220720075070858E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>91</v>
-      </c>
-      <c r="C20" s="4">
-        <v>7.2250893572345376E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3">
-        <v>90</v>
-      </c>
-      <c r="C21" s="4">
-        <v>7.1456929435953498E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="3">
-        <v>90</v>
-      </c>
-      <c r="C22" s="4">
-        <v>7.1456929435953498E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="3">
+        <v>113</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8.4045488620176911E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
-        <v>83</v>
-      </c>
-      <c r="C23" s="4">
-        <v>6.5899168839678168E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3">
-        <v>77</v>
-      </c>
-      <c r="C24" s="4">
-        <v>6.1135372379794717E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="B25" s="3">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4">
-        <v>5.8753474149852991E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1">
+        <v>7.9582893522456288E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="3">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4">
-        <v>5.4783641826361418E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1">
+        <v>7.8095367643982172E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4">
-        <v>5.398967768996954E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1">
+        <v>7.5120304245501757E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>97</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7.2145240847021341E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="3">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4">
+        <v>6.4707588171586394E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3">
+        <v>82</v>
+      </c>
+      <c r="C30" s="4">
+        <v>6.0988758923485875E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3">
+        <v>77</v>
+      </c>
+      <c r="C31" s="4">
+        <v>5.7269935496151447E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3">
-        <v>65</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5.1607779460027814E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3">
-        <v>65</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5.1607779460027814E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="B32" s="3">
+        <v>74</v>
+      </c>
+      <c r="C32" s="4">
+        <v>5.5038637947291136E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="3">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5.4294872097671032E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3">
+        <v>67</v>
+      </c>
+      <c r="C34" s="4">
+        <v>4.98322828207165E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>55</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4.09070955356583E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3">
-        <v>63</v>
-      </c>
-      <c r="C30" s="4">
-        <v>5.0019851187244058E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3">
-        <v>62</v>
-      </c>
-      <c r="C31" s="4">
-        <v>4.9225881230086088E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3">
-        <v>58</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4.6050018863752484E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3">
-        <v>56</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4.4462087680585682E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="3">
-        <v>51</v>
-      </c>
-      <c r="C34" s="4">
-        <v>4.0492258267477155E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="B36" s="3">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3.6444503348320723E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3">
         <v>47</v>
       </c>
-      <c r="C35" s="4">
-        <v>3.7316395901143551E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="3">
-        <v>42</v>
-      </c>
-      <c r="C36" s="4">
-        <v>3.3346566488035023E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3">
-        <v>40</v>
-      </c>
       <c r="C37" s="4">
-        <v>3.1758635304868221E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1">
+        <v>3.4956974559463561E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B38" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="4">
-        <v>3.0170701211318374E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1">
+        <v>2.7519318973645568E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3">
         <v>36</v>
       </c>
       <c r="C39" s="4">
-        <v>2.8582770028151572E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1">
+        <v>2.6775553124025464E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B40" s="3">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2.6775553124025464E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3">
+        <v>31</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2.3056726786307991E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4">
+        <v>2.2312960936687887E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="4">
-        <v>2.7788805891759694E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="3">
-        <v>34</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2.699483884498477E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="3">
+      <c r="B43" s="3">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4">
+        <v>2.2312960936687887E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3">
         <v>29</v>
       </c>
-      <c r="C42" s="4">
-        <v>2.3025009431876242E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="3">
-        <v>27</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2.143707824870944E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="3">
-        <v>27</v>
-      </c>
       <c r="C44" s="4">
-        <v>2.143707824870944E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1">
+        <v>2.1569196542259306E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3">
+        <v>26</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1.9337900448590517E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="3">
         <v>25</v>
       </c>
-      <c r="C45" s="4">
-        <v>1.9849147065542638E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="4">
+        <v>1.8594134598970413E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
         <v>25</v>
       </c>
-      <c r="B46" s="3">
+      <c r="C47" s="4">
+        <v>1.8594134598970413E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="3">
+        <v>25</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.8594134598970413E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3">
         <v>24</v>
       </c>
-      <c r="C46" s="4">
-        <v>1.9055180018767715E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="C49" s="4">
+        <v>1.7850368749350309E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="3">
+        <v>21</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1.5619072655681521E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="3">
-        <v>23</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1.8261214427184314E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3">
-        <v>22</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1.7467248835600913E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1">
-      <c r="A49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B49" s="3">
+      <c r="B51" s="3">
         <v>21</v>
       </c>
-      <c r="C49" s="4">
-        <v>1.6673283244017512E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="3">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1.5085350605659187E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3">
-        <v>18</v>
-      </c>
       <c r="C51" s="4">
-        <v>1.4291385014075786E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1">
+        <v>1.5619072655681521E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B52" s="3">
+        <v>20</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1.487530826125294E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3">
+        <v>20</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1.487530826125294E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="3">
         <v>17</v>
       </c>
-      <c r="C52" s="4">
-        <v>1.3497419422492385E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1.2703453830908984E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="3">
-        <v>15</v>
-      </c>
       <c r="C54" s="4">
-        <v>1.1909488239325583E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1">
+        <v>1.2644012167584151E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B55" s="3">
+        <v>17</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1.2644012167584151E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="3">
+        <v>16</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1.1900246317964047E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="3">
         <v>15</v>
       </c>
-      <c r="C55" s="4">
-        <v>1.1909488239325583E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="3">
+      <c r="C57" s="4">
+        <v>1.1156480468343943E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="3">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1.0412715346319601E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="3">
         <v>13</v>
       </c>
-      <c r="C56" s="4">
-        <v>1.032155632856302E-4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="3">
+      <c r="C59" s="4">
+        <v>9.6689502242952585E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="3">
         <v>13</v>
       </c>
-      <c r="C57" s="4">
-        <v>1.032155632856302E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="3">
+      <c r="C60" s="4">
+        <v>9.6689502242952585E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="3">
         <v>13</v>
       </c>
-      <c r="C58" s="4">
-        <v>1.032155632856302E-4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="C61" s="4">
+        <v>9.6689502242952585E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
         <v>12</v>
       </c>
-      <c r="C59" s="4">
-        <v>9.5275900093838573E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B60" s="3">
-        <v>11</v>
-      </c>
-      <c r="C60" s="4">
-        <v>8.7336244178004563E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="3">
-        <v>11</v>
-      </c>
-      <c r="C61" s="4">
-        <v>8.7336244178004563E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1">
-      <c r="A62" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="3">
-        <v>11</v>
-      </c>
       <c r="C62" s="4">
-        <v>8.7336244178004563E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1">
+        <v>8.9251843746751547E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3">
         <v>10</v>
       </c>
       <c r="C63" s="4">
-        <v>7.9396588262170553E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1">
+        <v>7.4376541306264699E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B64" s="3">
         <v>10</v>
       </c>
       <c r="C64" s="4">
-        <v>7.9396588262170553E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1">
+        <v>7.4376541306264699E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B65" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65" s="4">
-        <v>7.1456925070378929E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1">
+        <v>5.9501231589820236E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66" s="4">
-        <v>7.1456925070378929E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1">
+        <v>5.9501231589820236E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B67" s="3">
         <v>8</v>
       </c>
       <c r="C67" s="4">
-        <v>6.351726915454492E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1">
+        <v>5.9501231589820236E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B68" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" s="4">
-        <v>6.351726915454492E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1">
+        <v>5.2063576731598005E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B69" s="3">
         <v>7</v>
       </c>
       <c r="C69" s="4">
-        <v>5.5577609600732103E-5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1">
+        <v>5.2063576731598005E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3">
         <v>7</v>
       </c>
       <c r="C70" s="4">
-        <v>5.5577609600732103E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1">
+        <v>5.2063576731598005E-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B71" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4">
-        <v>4.7637950046919286E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1">
+        <v>5.2063576731598005E-5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="3">
         <v>6</v>
       </c>
       <c r="C72" s="4">
-        <v>4.7637950046919286E-5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1">
+        <v>4.4625921873375773E-5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3">
         <v>6</v>
       </c>
       <c r="C73" s="4">
-        <v>4.7637950046919286E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1">
+        <v>4.4625921873375773E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B74" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1">
+        <v>4.4625921873375773E-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1">
+        <v>4.4625921873375773E-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B76" s="3">
         <v>5</v>
       </c>
       <c r="C76" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3">
         <v>5</v>
       </c>
       <c r="C77" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3">
         <v>5</v>
       </c>
       <c r="C78" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B79" s="3">
         <v>5</v>
       </c>
       <c r="C79" s="4">
-        <v>3.9698294131085277E-5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B80" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C80" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B81" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1">
+        <v>3.7188270653132349E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B82" s="3">
         <v>4</v>
       </c>
       <c r="C82" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1">
+        <v>2.9750615794910118E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B83" s="3">
         <v>4</v>
       </c>
       <c r="C83" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1">
+        <v>2.9750615794910118E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B84" s="3">
         <v>4</v>
       </c>
       <c r="C84" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1">
+        <v>2.9750615794910118E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3">
         <v>4</v>
       </c>
       <c r="C85" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1">
+        <v>2.9750615794910118E-5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C86" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C87" s="4">
-        <v>3.175863457727246E-5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>3</v>
       </c>
       <c r="C88" s="4">
-        <v>2.3818975023459643E-5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B89" s="3">
         <v>3</v>
       </c>
       <c r="C89" s="4">
-        <v>2.3818975023459643E-5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
       </c>
       <c r="C90" s="4">
-        <v>2.3818975023459643E-5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B91" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C91" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B92" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C92" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1">
+        <v>2.2312960936687887E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93" s="3">
         <v>2</v>
       </c>
       <c r="C93" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B94" s="3">
         <v>2</v>
       </c>
       <c r="C94" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95" s="3">
         <v>2</v>
       </c>
       <c r="C95" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B96" s="3">
         <v>2</v>
       </c>
       <c r="C96" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B97" s="3">
         <v>2</v>
       </c>
       <c r="C97" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B98" s="3">
         <v>2</v>
       </c>
       <c r="C98" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="B99" s="3">
         <v>2</v>
       </c>
       <c r="C99" s="4">
-        <v>1.587931728863623E-5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B100" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="B101" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.4875307897455059E-5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107" s="3">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="3">
+        <v>1</v>
+      </c>
+      <c r="C108" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
+      <c r="C109" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
+      <c r="C110" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
+      <c r="C111" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1</v>
+      </c>
+      <c r="C112" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="3">
+        <v>1</v>
+      </c>
+      <c r="C114" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="3">
+        <v>1</v>
+      </c>
+      <c r="C115" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="3">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
+      <c r="C117" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="3">
+        <v>1</v>
+      </c>
+      <c r="C118" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="3">
+        <v>1</v>
+      </c>
+      <c r="C119" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" s="3">
+        <v>1</v>
+      </c>
+      <c r="C120" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" s="3">
+        <v>1</v>
+      </c>
+      <c r="C121" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="3">
+        <v>1</v>
+      </c>
+      <c r="C122" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1</v>
+      </c>
+      <c r="C123" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>1</v>
+      </c>
+      <c r="C124" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
+      <c r="C125" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B130" s="3">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1">
-      <c r="A106" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1">
-      <c r="A107" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="3">
-        <v>1</v>
-      </c>
-      <c r="C107" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1">
-      <c r="A108" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="3">
-        <v>1</v>
-      </c>
-      <c r="C108" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1">
-      <c r="A111" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B111" s="3">
-        <v>1</v>
-      </c>
-      <c r="C111" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1">
-      <c r="A112" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1">
-      <c r="A113" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B113" s="3">
-        <v>1</v>
-      </c>
-      <c r="C113" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1">
-      <c r="A114" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B114" s="3">
-        <v>1</v>
-      </c>
-      <c r="C114" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1">
-      <c r="A115" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B115" s="3">
-        <v>1</v>
-      </c>
-      <c r="C115" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1">
-      <c r="A116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B116" s="3">
-        <v>1</v>
-      </c>
-      <c r="C116" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1">
-      <c r="A117" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15" customHeight="1">
-      <c r="A118" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B118" s="3">
-        <v>1</v>
-      </c>
-      <c r="C118" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="15" customHeight="1">
-      <c r="A119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1">
-      <c r="A120" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B120" s="3">
-        <v>1</v>
-      </c>
-      <c r="C120" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" s="4">
-        <v>7.939658644318115E-6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>82</v>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4">
+        <v>7.4376539487275295E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -277,9 +277,6 @@
     <t>Bahamas (Comonwealth)</t>
   </si>
   <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
     <t>FUENTE: IIEG, con datos de la Secretaría de Turismo.</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Islandia</t>
   </si>
   <si>
-    <t>Zimbabue</t>
-  </si>
-  <si>
     <t>Bosnia - Herzegovina</t>
   </si>
   <si>
@@ -325,87 +319,33 @@
     <t>Mongolia</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>Fiyi, Islas</t>
   </si>
   <si>
-    <t>Túnez</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
     <t>Tayikistán</t>
   </si>
   <si>
-    <t>Abril 2021</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Surinam</t>
-  </si>
-  <si>
     <t>República de Micronesia (EUA)</t>
   </si>
   <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Camboya</t>
-  </si>
-  <si>
-    <t>Ruanda</t>
-  </si>
-  <si>
-    <t>Apátrida</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Guinea Ecuatorial</t>
-  </si>
-  <si>
-    <t>Sierra Leona</t>
-  </si>
-  <si>
     <t>Estonia</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Congo, Rep. Dem.</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
     <t>Bermudas, Islas (R. Unido)</t>
   </si>
   <si>
-    <t>Costa de Marfil</t>
-  </si>
-  <si>
     <t>Marruecos</t>
   </si>
   <si>
@@ -418,22 +358,61 @@
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Kirguistán</t>
-  </si>
-  <si>
     <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Mayo 2021</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Islas Marshall (EUA)</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Azerbaiyán</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Angola</t>
   </si>
 </sst>
 </file>
@@ -884,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C142"/>
+  <dimension ref="A8:C135"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -910,7 +889,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -918,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -929,10 +908,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>130102</v>
+        <v>166569</v>
       </c>
       <c r="C13" s="4">
-        <v>0.96765363216400146</v>
+        <v>0.96935993432998657</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -940,10 +919,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>871</v>
+        <v>961</v>
       </c>
       <c r="C14" s="4">
-        <v>6.4781964756548405E-3</v>
+        <v>5.5926069617271423E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -951,10 +930,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>377</v>
+        <v>470</v>
       </c>
       <c r="C15" s="4">
-        <v>2.8039955068379641E-3</v>
+        <v>2.7351980097591877E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -962,120 +941,120 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="C16" s="4">
-        <v>1.7775992164388299E-3</v>
+        <v>1.838984084315598E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="C17" s="4">
-        <v>1.1974623193964362E-3</v>
+        <v>1.2919445289298892E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C18" s="4">
-        <v>1.1082104174420238E-3</v>
+        <v>9.6022908110171556E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4">
-        <v>9.5945736393332481E-4</v>
+        <v>9.4858993543311954E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4">
-        <v>9.5201970543712378E-4</v>
+        <v>8.7875506142154336E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C21" s="4">
-        <v>9.4458204694092274E-4</v>
+        <v>8.3801808068528771E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22" s="3">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4">
-        <v>9.371443884447217E-4</v>
+        <v>8.2055939128622413E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4">
-        <v>8.6276786169037223E-4</v>
+        <v>7.7982241054996848E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C24" s="4">
-        <v>8.4045488620176911E-4</v>
+        <v>7.3326582787558436E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4">
-        <v>7.9582893522456288E-4</v>
+        <v>7.2744628414511681E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C26" s="4">
-        <v>7.8095367643982172E-4</v>
+        <v>7.2162668220698833E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1083,43 +1062,43 @@
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4">
-        <v>7.5120304245501757E-4</v>
+        <v>6.9834839086979628E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B28" s="3">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4">
-        <v>7.2145240847021341E-4</v>
+        <v>6.8088970147073269E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4">
-        <v>6.4707588171586394E-4</v>
+        <v>6.6925055580213666E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4">
-        <v>6.0988758923485875E-4</v>
+        <v>6.5179186640307307E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1127,131 +1106,131 @@
         <v>7</v>
       </c>
       <c r="B31" s="3">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C31" s="4">
-        <v>5.7269935496151447E-4</v>
+        <v>5.7613744866102934E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C32" s="4">
-        <v>5.5038637947291136E-4</v>
+        <v>4.8884388525038958E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" s="4">
-        <v>5.4294872097671032E-4</v>
+        <v>4.1318946750834584E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B34" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="4">
-        <v>4.98322828207165E-4</v>
+        <v>4.0736989467404783E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C35" s="4">
-        <v>4.09070955356583E-4</v>
+        <v>3.8991120527498424E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C36" s="4">
-        <v>3.6444503348320723E-4</v>
+        <v>3.6081334110349417E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C37" s="4">
-        <v>3.4956974559463561E-4</v>
+        <v>3.4917419543489814E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C38" s="4">
-        <v>2.7519318973645568E-4</v>
+        <v>3.3171550603583455E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4">
-        <v>2.6775553124025464E-4</v>
+        <v>3.2589593320153654E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C40" s="4">
-        <v>2.6775553124025464E-4</v>
+        <v>3.2007636036723852E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B41" s="3">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C41" s="4">
-        <v>2.3056726786307991E-4</v>
+        <v>2.7933935052715242E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B42" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C42" s="4">
-        <v>2.2312960936687887E-4</v>
+        <v>2.3860236979089677E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1259,791 +1238,791 @@
         <v>35</v>
       </c>
       <c r="B43" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C43" s="4">
-        <v>2.2312960936687887E-4</v>
+        <v>2.2696323867421597E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C44" s="4">
-        <v>2.1569196542259306E-4</v>
+        <v>2.0950452017132193E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C45" s="4">
-        <v>1.9337900448590517E-4</v>
+        <v>2.0368494733702391E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4">
-        <v>1.8594134598970413E-4</v>
+        <v>1.9204581622034311E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="4">
-        <v>1.8594134598970413E-4</v>
+        <v>1.7458709771744907E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B48" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C48" s="4">
-        <v>1.8594134598970413E-4</v>
+        <v>1.6876752488315105E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C49" s="4">
-        <v>1.7850368749350309E-4</v>
+        <v>1.6294796660076827E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B50" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C50" s="4">
-        <v>1.5619072655681521E-4</v>
+        <v>1.5130882093217224E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4">
-        <v>1.5619072655681521E-4</v>
+        <v>1.4548924809787422E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C52" s="4">
-        <v>1.487530826125294E-4</v>
+        <v>1.2803054414689541E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B53" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C53" s="4">
-        <v>1.487530826125294E-4</v>
+        <v>1.2803054414689541E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B54" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4">
-        <v>1.2644012167584151E-4</v>
+        <v>1.1639139847829938E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B55" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C55" s="4">
-        <v>1.2644012167584151E-4</v>
+        <v>1.1057183291995898E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C56" s="4">
-        <v>1.1900246317964047E-4</v>
+        <v>1.1057183291995898E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B57" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C57" s="4">
-        <v>1.1156480468343943E-4</v>
+        <v>1.0475226008566096E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C58" s="4">
-        <v>1.0412715346319601E-4</v>
+        <v>9.3113121693022549E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B59" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4">
-        <v>9.6689502242952585E-5</v>
+        <v>9.3113121693022549E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B60" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4">
-        <v>9.6689502242952585E-5</v>
+        <v>9.3113121693022549E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B61" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C61" s="4">
-        <v>9.6689502242952585E-5</v>
+        <v>9.3113121693022549E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B62" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C62" s="4">
-        <v>8.9251843746751547E-5</v>
+        <v>8.1473983300384134E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4">
-        <v>7.4376541306264699E-5</v>
+        <v>6.9834837631788105E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B64" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C64" s="4">
-        <v>7.4376541306264699E-5</v>
+        <v>6.9834837631788105E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B65" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C65" s="4">
-        <v>5.9501231589820236E-5</v>
+        <v>6.9834837631788105E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C66" s="4">
-        <v>5.9501231589820236E-5</v>
+        <v>6.4015272073447704E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B67" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C67" s="4">
-        <v>5.9501231589820236E-5</v>
+        <v>5.819569923914969E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C68" s="4">
-        <v>5.2063576731598005E-5</v>
+        <v>5.819569923914969E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B69" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C69" s="4">
-        <v>5.2063576731598005E-5</v>
+        <v>5.819569923914969E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B70" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C70" s="4">
-        <v>5.2063576731598005E-5</v>
+        <v>5.2376130042830482E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71" s="4">
-        <v>5.2063576731598005E-5</v>
+        <v>5.2376130042830482E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B72" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C72" s="4">
-        <v>4.4625921873375773E-5</v>
+        <v>5.2376130042830482E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B73" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73" s="4">
-        <v>4.4625921873375773E-5</v>
+        <v>5.2376130042830482E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B74" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" s="4">
-        <v>4.4625921873375773E-5</v>
+        <v>4.6556560846511275E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="B75" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" s="4">
-        <v>4.4625921873375773E-5</v>
+        <v>4.6556560846511275E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B76" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.6556560846511275E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B77" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.6556560846511275E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.0736991650192067E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B79" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.0736991650192067E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B80" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.0736991650192067E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B81" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4">
-        <v>3.7188270653132349E-5</v>
+        <v>4.0736991650192067E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B82" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C82" s="4">
-        <v>2.9750615794910118E-5</v>
+        <v>3.4917418815894052E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B83" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4">
-        <v>2.9750615794910118E-5</v>
+        <v>3.4917418815894052E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B84" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4">
-        <v>2.9750615794910118E-5</v>
+        <v>3.4917418815894052E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="B85" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4">
-        <v>2.9750615794910118E-5</v>
+        <v>3.4917418815894052E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C86" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>3.4917418815894052E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.9097849619574845E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B88" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.9097849619574845E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B89" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.9097849619574845E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.9097849619574845E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B91" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.3278280423255637E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4">
-        <v>2.2312960936687887E-5</v>
+        <v>2.3278280423255637E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>2.3278280423255637E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B94" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>2.3278280423255637E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B95" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>2.3278280423255637E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B96" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B97" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B98" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C98" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B100" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="B101" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B102" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.7458709407947026E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="4">
-        <v>1.4875307897455059E-5</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="B108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2051,10 +2030,10 @@
         <v>117</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>1.1639140211627819E-5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2065,288 +2044,213 @@
         <v>1</v>
       </c>
       <c r="C116" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
       </c>
       <c r="C117" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>7.4376539487275295E-6</v>
+        <v>5.8195701058139093E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1</v>
-      </c>
-      <c r="C135" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="3">
-        <v>1</v>
-      </c>
-      <c r="C136" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1</v>
-      </c>
-      <c r="C137" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1</v>
-      </c>
-      <c r="C139" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1</v>
-      </c>
-      <c r="C141" s="4">
-        <v>7.4376539487275295E-6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B135" s="3"/>
+      <c r="C135" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -298,9 +298,6 @@
     <t>Irak</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
     <t>Líbano</t>
   </si>
   <si>
@@ -313,9 +310,6 @@
     <t>Bosnia - Herzegovina</t>
   </si>
   <si>
-    <t>Guyana</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -334,12 +328,6 @@
     <t>Macedonia</t>
   </si>
   <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -349,9 +337,6 @@
     <t>Marruecos</t>
   </si>
   <si>
-    <t>Antigua y Barbuda</t>
-  </si>
-  <si>
     <t>Dominica (Comonwealth)</t>
   </si>
   <si>
@@ -361,15 +346,9 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>Santa Lucía</t>
   </si>
   <si>
-    <t>Mayo 2021</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
@@ -388,31 +367,64 @@
     <t>Argelia</t>
   </si>
   <si>
-    <t>Azerbaiyán</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Camerún</t>
   </si>
   <si>
-    <t>Eslovenia</t>
-  </si>
-  <si>
-    <t>Benín</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Angola</t>
+    <t>Junio 2021</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Luxemburgo</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>República de Palaos (EUA)</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Congo, Rep. Dem.</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Yemen</t>
   </si>
 </sst>
 </file>
@@ -863,11 +875,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C135"/>
+  <dimension ref="A8:C139"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -889,7 +899,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -897,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -908,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>166569</v>
+        <v>203907</v>
       </c>
       <c r="C13" s="4">
-        <v>0.96935993432998657</v>
+        <v>0.97182333469390869</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -919,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>961</v>
+        <v>1179</v>
       </c>
       <c r="C14" s="4">
-        <v>5.5926069617271423E-3</v>
+        <v>5.6191287003457546E-3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -930,10 +940,10 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>470</v>
+        <v>640</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7351980097591877E-3</v>
+        <v>3.0502481386065483E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -941,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="C16" s="4">
-        <v>1.838984084315598E-3</v>
+        <v>1.334483502432704E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -952,241 +962,241 @@
         <v>10</v>
       </c>
       <c r="B17" s="3">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C17" s="4">
-        <v>1.2919445289298892E-3</v>
+        <v>1.0294587118551135E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C18" s="4">
-        <v>9.6022908110171556E-4</v>
+        <v>8.5311627481132746E-4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C19" s="4">
-        <v>9.4858993543311954E-4</v>
+        <v>8.0545613309368491E-4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4">
-        <v>8.7875506142154336E-4</v>
+        <v>7.911581196822226E-4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4">
-        <v>8.3801808068528771E-4</v>
+        <v>7.6256203465163708E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4">
-        <v>8.2055939128622413E-4</v>
+        <v>7.4826396303251386E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4">
-        <v>7.7982241054996848E-4</v>
+        <v>7.4826396303251386E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B24" s="3">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C24" s="4">
-        <v>7.3326582787558436E-4</v>
+        <v>7.1490189293399453E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C25" s="4">
-        <v>7.2744628414511681E-4</v>
+        <v>6.6247576614841819E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4">
-        <v>7.2162668220698833E-4</v>
+        <v>6.3864566618576646E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4">
-        <v>6.9834839086979628E-4</v>
+        <v>6.1958166770637035E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C28" s="4">
-        <v>6.8088970147073269E-4</v>
+        <v>6.1004963936284184E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C29" s="4">
-        <v>6.6925055580213666E-4</v>
+        <v>5.8621953940019011E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="4">
-        <v>6.5179186640307307E-4</v>
+        <v>5.4332544095814228E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C31" s="4">
-        <v>5.7613744866102934E-4</v>
+        <v>4.6230322914198041E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B32" s="3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C32" s="4">
-        <v>4.8884388525038958E-4</v>
+        <v>4.3847315828315914E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C33" s="4">
-        <v>4.1318946750834584E-4</v>
+        <v>4.3847315828315914E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4">
-        <v>4.0736989467404783E-4</v>
+        <v>4.2894112993963063E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4">
-        <v>3.8991120527498424E-4</v>
+        <v>3.8128101732581854E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4">
-        <v>3.6081334110349417E-4</v>
+        <v>3.2408884726464748E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C37" s="4">
-        <v>3.4917419543489814E-4</v>
+        <v>3.2408884726464748E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C38" s="4">
-        <v>3.3171550603583455E-4</v>
+        <v>3.0025880550965667E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1194,10 +1204,10 @@
         <v>22</v>
       </c>
       <c r="B39" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4">
-        <v>3.2589593320153654E-4</v>
+        <v>2.9549279133789241E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1205,175 +1215,175 @@
         <v>21</v>
       </c>
       <c r="B40" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="4">
-        <v>3.2007636036723852E-4</v>
+        <v>2.6689670630730689E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4">
-        <v>2.7933935052715242E-4</v>
+        <v>2.3353462165687233E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4">
-        <v>2.3860236979089677E-4</v>
+        <v>2.0017252245452255E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>39</v>
       </c>
       <c r="C43" s="4">
-        <v>2.2696323867421597E-4</v>
+        <v>1.8587449449114501E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B44" s="3">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C44" s="4">
-        <v>2.0950452017132193E-4</v>
+        <v>1.8110848031938076E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B45" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4">
-        <v>2.0368494733702391E-4</v>
+        <v>1.7634246614761651E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B46" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4">
-        <v>1.9204581622034311E-4</v>
+        <v>1.7634246614761651E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C47" s="4">
-        <v>1.7458709771744907E-4</v>
+        <v>1.5251240984071046E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C48" s="4">
-        <v>1.6876752488315105E-4</v>
+        <v>1.4774639566894621E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C49" s="4">
-        <v>1.6294796660076827E-4</v>
+        <v>1.4774639566894621E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C50" s="4">
-        <v>1.5130882093217224E-4</v>
+        <v>1.4298038149718195E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B51" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C51" s="4">
-        <v>1.4548924809787422E-4</v>
+        <v>1.4298038149718195E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C52" s="4">
-        <v>1.2803054414689541E-4</v>
+        <v>1.2868233898188919E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3">
         <v>22</v>
       </c>
       <c r="C53" s="4">
-        <v>1.2803054414689541E-4</v>
+        <v>1.0485227539902553E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C54" s="4">
-        <v>1.1639139847829938E-4</v>
+        <v>1.0485227539902553E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4">
-        <v>1.1057183291995898E-4</v>
+        <v>9.5320254331454635E-5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1381,494 +1391,494 @@
         <v>27</v>
       </c>
       <c r="B56" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4">
-        <v>1.1057183291995898E-4</v>
+        <v>9.5320254331454635E-5</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="4">
-        <v>1.0475226008566096E-4</v>
+        <v>9.055424015969038E-5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C58" s="4">
-        <v>9.3113121693022549E-5</v>
+        <v>9.055424015969038E-5</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B59" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C59" s="4">
-        <v>9.3113121693022549E-5</v>
+        <v>8.5788225987926126E-5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B60" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C60" s="4">
-        <v>9.3113121693022549E-5</v>
+        <v>8.1022211816161871E-5</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C61" s="4">
-        <v>9.3113121693022549E-5</v>
+        <v>8.1022211816161871E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B62" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C62" s="4">
-        <v>8.1473983300384134E-5</v>
+        <v>7.6256204920355231E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C63" s="4">
-        <v>6.9834837631788105E-5</v>
+        <v>7.1490190748590976E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B64" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C64" s="4">
-        <v>6.9834837631788105E-5</v>
+        <v>6.6724176576826721E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B65" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C65" s="4">
-        <v>6.9834837631788105E-5</v>
+        <v>6.6724176576826721E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B66" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
-        <v>6.4015272073447704E-5</v>
+        <v>6.1958162405062467E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4">
-        <v>5.819569923914969E-5</v>
+        <v>6.1958162405062467E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
-        <v>5.819569923914969E-5</v>
+        <v>5.7192151871277019E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B69" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C69" s="4">
-        <v>5.819569923914969E-5</v>
+        <v>5.2426137699512765E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B70" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C70" s="4">
-        <v>5.2376130042830482E-5</v>
+        <v>5.2426137699512765E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B71" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="4">
-        <v>5.2376130042830482E-5</v>
+        <v>4.7660127165727317E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B72" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="4">
-        <v>5.2376130042830482E-5</v>
+        <v>3.8128102460177615E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" s="4">
-        <v>5.2376130042830482E-5</v>
+        <v>3.8128102460177615E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3">
         <v>8</v>
       </c>
       <c r="C74" s="4">
-        <v>4.6556560846511275E-5</v>
+        <v>3.8128102460177615E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
         <v>8</v>
       </c>
       <c r="C75" s="4">
-        <v>4.6556560846511275E-5</v>
+        <v>3.8128102460177615E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B76" s="3">
         <v>8</v>
       </c>
       <c r="C76" s="4">
-        <v>4.6556560846511275E-5</v>
+        <v>3.8128102460177615E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B77" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4">
-        <v>4.6556560846511275E-5</v>
+        <v>3.3362088288413361E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B78" s="3">
         <v>7</v>
       </c>
       <c r="C78" s="4">
-        <v>4.0736991650192067E-5</v>
+        <v>3.3362088288413361E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4">
-        <v>4.0736991650192067E-5</v>
+        <v>2.859607593563851E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B80" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" s="4">
-        <v>4.0736991650192067E-5</v>
+        <v>2.859607593563851E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B81" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4">
-        <v>4.0736991650192067E-5</v>
+        <v>2.859607593563851E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3">
         <v>6</v>
       </c>
       <c r="C82" s="4">
-        <v>3.4917418815894052E-5</v>
+        <v>2.859607593563851E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4">
-        <v>3.4917418815894052E-5</v>
+        <v>2.3830063582863659E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="B84" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" s="4">
-        <v>3.4917418815894052E-5</v>
+        <v>2.3830063582863659E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B85" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="4">
-        <v>3.4917418815894052E-5</v>
+        <v>2.3830063582863659E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B86" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4">
-        <v>3.4917418815894052E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4">
-        <v>2.9097849619574845E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B88" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4">
-        <v>2.9097849619574845E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="B89" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4">
-        <v>2.9097849619574845E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B90" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4">
-        <v>2.9097849619574845E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B91" s="3">
         <v>4</v>
       </c>
       <c r="C91" s="4">
-        <v>2.3278280423255637E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B92" s="3">
         <v>4</v>
       </c>
       <c r="C92" s="4">
-        <v>2.3278280423255637E-5</v>
+        <v>1.9064051230088808E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="4">
-        <v>2.3278280423255637E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B94" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="4">
-        <v>2.3278280423255637E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B95" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C95" s="4">
-        <v>2.3278280423255637E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
       </c>
       <c r="C96" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B97" s="3">
         <v>3</v>
       </c>
       <c r="C97" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
       </c>
       <c r="C98" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B99" s="3">
         <v>3</v>
       </c>
       <c r="C99" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B100" s="3">
         <v>3</v>
       </c>
       <c r="C100" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1879,378 +1889,420 @@
         <v>3</v>
       </c>
       <c r="C101" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
       </c>
       <c r="C102" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>1.4298037967819255E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="B103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4">
-        <v>1.7458709407947026E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
       </c>
       <c r="C108" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>9.5320256150444038E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="4">
-        <v>1.1639140211627819E-5</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
       </c>
       <c r="C116" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
       </c>
       <c r="C117" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>5.8195701058139093E-6</v>
+        <v>4.7660128075222019E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>4.7660128075222019E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.7660128075222019E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4.7660128075222019E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>4.7660128075222019E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Tailandia</t>
   </si>
   <si>
-    <t>Letonia</t>
-  </si>
-  <si>
     <t>Malasia</t>
   </si>
   <si>
@@ -319,12 +316,6 @@
     <t>Tayikistán</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>República de Micronesia (EUA)</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
@@ -343,45 +334,24 @@
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>Santa Lucía</t>
   </si>
   <si>
-    <t>Barbados</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>Islas Marshall (EUA)</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>Argelia</t>
   </si>
   <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Camerún</t>
-  </si>
-  <si>
     <t>Liberia</t>
   </si>
   <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Junio 2021</t>
-  </si>
-  <si>
     <t>Emiratos Árabes Unidos</t>
   </si>
   <si>
@@ -391,9 +361,6 @@
     <t>Luxemburgo</t>
   </si>
   <si>
-    <t>Gabón</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -409,12 +376,6 @@
     <t>Camboya</t>
   </si>
   <si>
-    <t>Congo, Rep. Dem.</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
     <t>Palestina</t>
   </si>
   <si>
@@ -424,7 +385,52 @@
     <t>Túnez</t>
   </si>
   <si>
-    <t>Yemen</t>
+    <t>Agosto 2021</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Mianmar (Birmania)</t>
+  </si>
+  <si>
+    <t>Eslovenia</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Azerbaiyán</t>
+  </si>
+  <si>
+    <t>Benín</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Samoa Occidental</t>
+  </si>
+  <si>
+    <t>Omán</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Costa de Marfil</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>San Vicente y Las Granadinas</t>
   </si>
 </sst>
 </file>
@@ -875,9 +881,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C139"/>
+  <dimension ref="A8:C141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:C140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -899,7 +907,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -907,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -918,10 +926,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>203907</v>
+        <v>131018</v>
       </c>
       <c r="C13" s="4">
-        <v>0.97182333469390869</v>
+        <v>0.95089417695999146</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -929,10 +937,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>1179</v>
+        <v>1914</v>
       </c>
       <c r="C14" s="4">
-        <v>5.6191287003457546E-3</v>
+        <v>1.3891308568418026E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -940,186 +948,186 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C15" s="4">
-        <v>3.0502481386065483E-3</v>
+        <v>4.5941472053527832E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C16" s="4">
-        <v>1.334483502432704E-3</v>
+        <v>1.8216918688267469E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="C17" s="4">
-        <v>1.0294587118551135E-3</v>
+        <v>1.6547639388591051E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="C18" s="4">
-        <v>8.5311627481132746E-4</v>
+        <v>1.6402484616264701E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="C19" s="4">
-        <v>8.0545613309368491E-4</v>
+        <v>1.5531557146459818E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4">
-        <v>7.911581196822226E-4</v>
+        <v>1.4588050544261932E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="C21" s="4">
-        <v>7.6256203465163708E-4</v>
+        <v>1.2918771244585514E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C22" s="4">
-        <v>7.4826396303251386E-4</v>
+        <v>1.2410730123519897E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4">
-        <v>7.4826396303251386E-4</v>
+        <v>1.2192997382953763E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3">
         <v>150</v>
       </c>
       <c r="C24" s="4">
-        <v>7.1490189293399453E-4</v>
+        <v>1.0886605596169829E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C25" s="4">
-        <v>6.6247576614841819E-4</v>
+        <v>9.2173257144168019E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4">
-        <v>6.3864566618576646E-4</v>
+        <v>9.1447483282536268E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C27" s="4">
-        <v>6.1958166770637035E-4</v>
+        <v>8.0560875358060002E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4">
-        <v>6.1004963936284184E-4</v>
+        <v>7.9109333455562592E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C29" s="4">
-        <v>5.8621953940019011E-4</v>
+        <v>7.6932011870667338E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B30" s="3">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4">
-        <v>5.4332544095814228E-4</v>
+        <v>7.4754690285772085E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B31" s="3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" s="4">
-        <v>4.6230322914198041E-4</v>
+        <v>6.8948499392718077E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1127,32 +1135,32 @@
         <v>17</v>
       </c>
       <c r="B32" s="3">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="4">
-        <v>4.3847315828315914E-4</v>
+        <v>6.8222725531086326E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C33" s="4">
-        <v>4.3847315828315914E-4</v>
+        <v>6.2416534638032317E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B34" s="3">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C34" s="4">
-        <v>4.2894112993963063E-4</v>
+        <v>6.1690760776400566E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1160,351 +1168,351 @@
         <v>26</v>
       </c>
       <c r="B35" s="3">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C35" s="4">
-        <v>3.8128101732581854E-4</v>
+        <v>6.0964986914768815E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B36" s="3">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C36" s="4">
-        <v>3.2408884726464748E-4</v>
+        <v>5.2981480257585645E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="B37" s="3">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4">
-        <v>3.2408884726464748E-4</v>
+        <v>5.1529932534322143E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C38" s="4">
-        <v>3.0025880550965667E-4</v>
+        <v>4.7901063226163387E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39" s="4">
-        <v>2.9549279133789241E-4</v>
+        <v>4.282064619474113E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
-        <v>2.6689670630730689E-4</v>
+        <v>3.6288684350438416E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4">
-        <v>2.3353462165687233E-4</v>
+        <v>3.3385588903911412E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>2.0017252245452255E-4</v>
+        <v>3.2659815042279661E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4">
-        <v>1.8587449449114501E-4</v>
+        <v>3.2659815042279661E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B44" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4">
-        <v>1.8110848031938076E-4</v>
+        <v>3.0482493457384408E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B45" s="3">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C45" s="4">
-        <v>1.7634246614761651E-4</v>
+        <v>2.9756719595752656E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C46" s="4">
-        <v>1.7634246614761651E-4</v>
+        <v>2.9030945734120905E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C47" s="4">
-        <v>1.5251240984071046E-4</v>
+        <v>2.8305171872489154E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4">
-        <v>1.4774639566894621E-4</v>
+        <v>2.7579400921240449E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C49" s="4">
-        <v>1.4774639566894621E-4</v>
+        <v>2.6127853197976947E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B50" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C50" s="4">
-        <v>1.4298038149718195E-4</v>
+        <v>2.4676305474713445E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B51" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C51" s="4">
-        <v>1.4298038149718195E-4</v>
+        <v>2.3950531613081694E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B52" s="3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="4">
-        <v>1.2868233898188919E-4</v>
+        <v>2.3224757751449943E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B53" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C53" s="4">
-        <v>1.0485227539902553E-4</v>
+        <v>2.3224757751449943E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B54" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" s="4">
-        <v>1.0485227539902553E-4</v>
+        <v>1.5241246728692204E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B55" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55" s="4">
-        <v>9.5320254331454635E-5</v>
+        <v>1.5241246728692204E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C56" s="4">
-        <v>9.5320254331454635E-5</v>
+        <v>1.5241246728692204E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B57" s="3">
         <v>19</v>
       </c>
       <c r="C57" s="4">
-        <v>9.055424015969038E-5</v>
+        <v>1.3789700460620224E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B58" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" s="4">
-        <v>9.055424015969038E-5</v>
+        <v>1.1612378875724971E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="4">
-        <v>8.5788225987926126E-5</v>
+        <v>1.1612378875724971E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B60" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C60" s="4">
-        <v>8.1022211816161871E-5</v>
+        <v>1.1612378875724971E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B61" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C61" s="4">
-        <v>8.1022211816161871E-5</v>
+        <v>1.088660501409322E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="4">
-        <v>7.6256204920355231E-5</v>
+        <v>1.088660501409322E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B63" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" s="4">
-        <v>7.1490190748590976E-5</v>
+        <v>1.0160831152461469E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
         <v>14</v>
       </c>
       <c r="C64" s="4">
-        <v>6.6724176576826721E-5</v>
+        <v>1.0160831152461469E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B65" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" s="4">
-        <v>6.6724176576826721E-5</v>
+        <v>8.7092841567937285E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B66" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C66" s="4">
-        <v>6.1958162405062467E-5</v>
+        <v>8.7092841567937285E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1512,571 +1520,571 @@
         <v>68</v>
       </c>
       <c r="B67" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" s="4">
-        <v>6.1958162405062467E-5</v>
+        <v>7.9835102951619774E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C68" s="4">
-        <v>5.7192151871277019E-5</v>
+        <v>7.9835102951619774E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3">
         <v>11</v>
       </c>
       <c r="C69" s="4">
-        <v>5.2426137699512765E-5</v>
+        <v>7.9835102951619774E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="4">
-        <v>5.2426137699512765E-5</v>
+        <v>7.2577364335302263E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B71" s="3">
         <v>10</v>
       </c>
       <c r="C71" s="4">
-        <v>4.7660127165727317E-5</v>
+        <v>7.2577364335302263E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" s="4">
-        <v>3.8128102460177615E-5</v>
+        <v>6.5319632994942367E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B73" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" s="4">
-        <v>3.8128102460177615E-5</v>
+        <v>6.5319632994942367E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="B74" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" s="4">
-        <v>3.8128102460177615E-5</v>
+        <v>6.5319632994942367E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3">
         <v>8</v>
       </c>
       <c r="C75" s="4">
-        <v>3.8128102460177615E-5</v>
+        <v>5.8061894378624856E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B76" s="3">
         <v>8</v>
       </c>
       <c r="C76" s="4">
-        <v>3.8128102460177615E-5</v>
+        <v>5.8061894378624856E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" s="4">
-        <v>3.3362088288413361E-5</v>
+        <v>5.8061894378624856E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="B78" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" s="4">
-        <v>3.3362088288413361E-5</v>
+        <v>5.8061894378624856E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B79" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" s="4">
-        <v>2.859607593563851E-5</v>
+        <v>5.0804155762307346E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B80" s="3">
         <v>6</v>
       </c>
       <c r="C80" s="4">
-        <v>2.859607593563851E-5</v>
+        <v>4.3546420783968642E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B81" s="3">
         <v>6</v>
       </c>
       <c r="C81" s="4">
-        <v>2.859607593563851E-5</v>
+        <v>4.3546420783968642E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B82" s="3">
         <v>6</v>
       </c>
       <c r="C82" s="4">
-        <v>2.859607593563851E-5</v>
+        <v>4.3546420783968642E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B83" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" s="4">
-        <v>2.3830063582863659E-5</v>
+        <v>4.3546420783968642E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B84" s="3">
         <v>5</v>
       </c>
       <c r="C84" s="4">
-        <v>2.3830063582863659E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B85" s="3">
         <v>5</v>
       </c>
       <c r="C85" s="4">
-        <v>2.3830063582863659E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B86" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B87" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B89" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>3.6288682167651132E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" s="3">
         <v>4</v>
       </c>
       <c r="C90" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>2.9030947189312428E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="B91" s="3">
         <v>4</v>
       </c>
       <c r="C91" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>2.9030947189312428E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
         <v>4</v>
       </c>
       <c r="C92" s="4">
-        <v>1.9064051230088808E-5</v>
+        <v>2.9030947189312428E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.9030947189312428E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B94" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.9030947189312428E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
       </c>
       <c r="C96" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B97" s="3">
         <v>3</v>
       </c>
       <c r="C97" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
       </c>
       <c r="C98" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B99" s="3">
         <v>3</v>
       </c>
       <c r="C99" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B100" s="3">
         <v>3</v>
       </c>
       <c r="C100" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B101" s="3">
         <v>3</v>
       </c>
       <c r="C101" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
       </c>
       <c r="C102" s="4">
-        <v>1.4298037967819255E-5</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C103" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>2.1773210391984321E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B107" s="3">
         <v>2</v>
       </c>
       <c r="C107" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B108" s="3">
         <v>2</v>
       </c>
       <c r="C108" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B109" s="3">
         <v>2</v>
       </c>
       <c r="C109" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="4">
-        <v>9.5320256150444038E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>1.4515473594656214E-5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2087,40 +2095,40 @@
         <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2131,117 +2139,117 @@
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2252,56 +2260,78 @@
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" s="4">
-        <v>4.7660128075222019E-6</v>
+        <v>7.2577367973281071E-6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="1" t="s">
-        <v>82</v>
+      <c r="A139" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>7.2577367973281071E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>7.2577367973281071E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -298,27 +298,18 @@
     <t>Líbano</t>
   </si>
   <si>
-    <t>Etiopía</t>
-  </si>
-  <si>
     <t>Islandia</t>
   </si>
   <si>
     <t>Bosnia - Herzegovina</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Fiyi, Islas</t>
   </si>
   <si>
     <t>Tayikistán</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
@@ -337,12 +328,6 @@
     <t>Santa Lucía</t>
   </si>
   <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Islas Marshall (EUA)</t>
-  </si>
-  <si>
     <t>Argelia</t>
   </si>
   <si>
@@ -352,42 +337,15 @@
     <t>Gambia</t>
   </si>
   <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Luxemburgo</t>
   </si>
   <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Zimbabue</t>
-  </si>
-  <si>
-    <t>República de Palaos (EUA)</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>Camboya</t>
-  </si>
-  <si>
-    <t>Palestina</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Túnez</t>
-  </si>
-  <si>
-    <t>Agosto 2021</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -397,40 +355,52 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Mianmar (Birmania)</t>
-  </si>
-  <si>
     <t>Eslovenia</t>
   </si>
   <si>
     <t>Chipre</t>
   </si>
   <si>
-    <t>Azerbaiyán</t>
-  </si>
-  <si>
-    <t>Benín</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Samoa Occidental</t>
-  </si>
-  <si>
     <t>Omán</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Costa de Marfil</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>San Vicente y Las Granadinas</t>
+    <t>Septiembre 2021</t>
+  </si>
+  <si>
+    <t>Kirguistán</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Letonia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Ruanda</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Congo, Rep. Dem.</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sudán</t>
   </si>
 </sst>
 </file>
@@ -881,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C141"/>
+  <dimension ref="A8:C131"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139:C140"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -907,7 +877,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -915,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -926,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>131018</v>
+        <v>116044</v>
       </c>
       <c r="C13" s="4">
-        <v>0.95089417695999146</v>
+        <v>0.94236689805984497</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -937,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>1914</v>
+        <v>2193</v>
       </c>
       <c r="C14" s="4">
-        <v>1.3891308568418026E-2</v>
+        <v>1.7808852717280388E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -948,32 +918,32 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>633</v>
+        <v>828</v>
       </c>
       <c r="C15" s="4">
-        <v>4.5941472053527832E-3</v>
+        <v>6.7239995114505291E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="C16" s="4">
-        <v>1.8216918688267469E-3</v>
+        <v>3.6543474998325109E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="C17" s="4">
-        <v>1.6547639388591051E-3</v>
+        <v>1.9489852711558342E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -981,43 +951,43 @@
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C18" s="4">
-        <v>1.6402484616264701E-3</v>
+        <v>1.9165022531524301E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="3">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C19" s="4">
-        <v>1.5531557146459818E-3</v>
+        <v>1.7622075974941254E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B20" s="3">
         <v>201</v>
       </c>
       <c r="C20" s="4">
-        <v>1.4588050544261932E-3</v>
+        <v>1.6322751762345433E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4">
-        <v>1.2918771244585514E-3</v>
+        <v>1.307444297708571E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1025,164 +995,164 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C22" s="4">
-        <v>1.2410730123519897E-3</v>
+        <v>1.2099950108677149E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4">
-        <v>1.2192997382953763E-3</v>
+        <v>1.1531496420502663E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0886605596169829E-3</v>
+        <v>1.0963042732328176E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4">
-        <v>9.2173257144168019E-4</v>
+        <v>1.0150965536013246E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C26" s="4">
-        <v>9.1447483282536268E-4</v>
+        <v>9.8261341918259859E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C27" s="4">
-        <v>8.0560875358060002E-4</v>
+        <v>9.1764726676046848E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="3">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" s="4">
-        <v>7.9109333455562592E-4</v>
+        <v>8.6892262334004045E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C29" s="4">
-        <v>7.6932011870667338E-4</v>
+        <v>8.283187635242939E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="4">
-        <v>7.4754690285772085E-4</v>
+        <v>7.8771490370854735E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="4">
-        <v>6.8948499392718077E-4</v>
+        <v>7.4711104389280081E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B32" s="3">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C32" s="4">
-        <v>6.8222725531086326E-4</v>
+        <v>6.9026561686769128E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="4">
-        <v>6.2416534638032317E-4</v>
+        <v>6.8214483326300979E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4">
-        <v>6.1690760776400566E-4</v>
+        <v>6.0905789723619819E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B35" s="3">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4">
-        <v>6.0964986914768815E-4</v>
+        <v>6.009371136315167E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B36" s="3">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4">
-        <v>5.2981480257585645E-4</v>
+        <v>5.5221252841874957E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1190,373 +1160,373 @@
         <v>13</v>
       </c>
       <c r="B37" s="3">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C37" s="4">
-        <v>5.1529932534322143E-4</v>
+        <v>4.6288402518257499E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4">
-        <v>4.7901063226163387E-4</v>
+        <v>4.547632415778935E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4">
-        <v>4.282064619474113E-4</v>
+        <v>4.1415938176214695E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B40" s="3">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
-        <v>3.6288684350438416E-4</v>
+        <v>3.5731398384086788E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B41" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4">
-        <v>3.3385588903911412E-4</v>
+        <v>3.4919320023618639E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42" s="4">
-        <v>3.2659815042279661E-4</v>
+        <v>3.4107241663150489E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="4">
-        <v>3.2659815042279661E-4</v>
+        <v>3.3295166213065386E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="4">
-        <v>3.0482493457384408E-4</v>
+        <v>3.3295166213065386E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4">
-        <v>2.9756719595752656E-4</v>
+        <v>3.0858934042043984E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B46" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C46" s="4">
-        <v>2.9030945734120905E-4</v>
+        <v>2.8422701871022582E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B47" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4">
-        <v>2.8305171872489154E-4</v>
+        <v>2.6798548060469329E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4">
-        <v>2.7579400921240449E-4</v>
+        <v>2.598646970000118E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B49" s="3">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C49" s="4">
-        <v>2.6127853197976947E-4</v>
+        <v>2.1114006813149899E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="3">
         <v>25</v>
       </c>
-      <c r="B50" s="3">
-        <v>34</v>
-      </c>
       <c r="C50" s="4">
-        <v>2.4676305474713445E-4</v>
+        <v>2.0301929907873273E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C51" s="4">
-        <v>2.3950531613081694E-4</v>
+        <v>2.0301929907873273E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" s="3">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4">
-        <v>2.3224757751449943E-4</v>
+        <v>1.867777609732002E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B53" s="3">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C53" s="4">
-        <v>2.3224757751449943E-4</v>
+        <v>1.6241543926298618E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C54" s="4">
-        <v>1.5241246728692204E-4</v>
+        <v>1.5429467021021992E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B55" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C55" s="4">
-        <v>1.5241246728692204E-4</v>
+        <v>1.4617390115745366E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B56" s="3">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C56" s="4">
-        <v>1.5241246728692204E-4</v>
+        <v>1.2181157944723964E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B57" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C57" s="4">
-        <v>1.3789700460620224E-4</v>
+        <v>1.2181157944723964E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C58" s="4">
-        <v>1.1612378875724971E-4</v>
+        <v>1.1369081039447337E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4">
-        <v>1.1612378875724971E-4</v>
+        <v>1.1369081039447337E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B60" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4">
-        <v>1.1612378875724971E-4</v>
+        <v>1.055700340657495E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C61" s="4">
-        <v>1.088660501409322E-4</v>
+        <v>9.7449265012983233E-5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C62" s="4">
-        <v>1.088660501409322E-4</v>
+        <v>9.7449265012983233E-5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B63" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C63" s="4">
-        <v>1.0160831152461469E-4</v>
+        <v>8.9328495960216969E-5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B64" s="3">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C64" s="4">
-        <v>1.0160831152461469E-4</v>
+        <v>8.9328495960216969E-5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="4">
-        <v>8.7092841567937285E-5</v>
+        <v>8.9328495960216969E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="B66" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" s="4">
-        <v>8.7092841567937285E-5</v>
+        <v>7.3086950578726828E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B67" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4">
-        <v>7.9835102951619774E-5</v>
+        <v>6.496617425000295E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B68" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4">
-        <v>7.9835102951619774E-5</v>
+        <v>6.496617425000295E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B69" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C69" s="4">
-        <v>7.9835102951619774E-5</v>
+        <v>6.496617425000295E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B70" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" s="4">
-        <v>7.2577364335302263E-5</v>
+        <v>6.496617425000295E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1564,773 +1534,663 @@
         <v>67</v>
       </c>
       <c r="B71" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C71" s="4">
-        <v>7.2577364335302263E-5</v>
+        <v>5.6845405197236687E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" s="4">
-        <v>6.5319632994942367E-5</v>
+        <v>5.6845405197236687E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B73" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4">
-        <v>6.5319632994942367E-5</v>
+        <v>5.6845405197236687E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B74" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74" s="4">
-        <v>6.5319632994942367E-5</v>
+        <v>4.8724632506491616E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B75" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" s="4">
-        <v>5.8061894378624856E-5</v>
+        <v>4.8724632506491616E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" s="4">
-        <v>5.8061894378624856E-5</v>
+        <v>4.8724632506491616E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" s="4">
-        <v>5.8061894378624856E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B78" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" s="4">
-        <v>5.8061894378624856E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B79" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" s="4">
-        <v>5.0804155762307346E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B80" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="4">
-        <v>4.3546420783968642E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B81" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" s="4">
-        <v>4.3546420783968642E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" s="4">
-        <v>4.3546420783968642E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B83" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" s="4">
-        <v>4.3546420783968642E-5</v>
+        <v>4.0603859815746546E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B84" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>3.2483087125001475E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B85" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>3.2483087125001475E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="B86" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>3.2483087125001475E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="B87" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>3.2483087125001475E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>3.2483087125001475E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B89" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C89" s="4">
-        <v>3.6288682167651132E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B90" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="4">
-        <v>2.9030947189312428E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="4">
-        <v>2.9030947189312428E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B92" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C92" s="4">
-        <v>2.9030947189312428E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="4">
-        <v>2.9030947189312428E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="4">
-        <v>2.9030947189312428E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
       </c>
       <c r="C96" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B97" s="3">
         <v>3</v>
       </c>
       <c r="C97" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
       </c>
       <c r="C98" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>2.4362316253245808E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B100" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4">
-        <v>2.1773210391984321E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>1.6241543562500738E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C107" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B108" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B109" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C109" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C111" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C113" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C115" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C116" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C117" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="4">
-        <v>1.4515473594656214E-5</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>7.2577367973281071E-6</v>
+        <v>8.1207717812503688E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" s="3">
-        <v>1</v>
-      </c>
-      <c r="C132" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" s="3">
-        <v>1</v>
-      </c>
-      <c r="C133" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B134" s="3">
-        <v>1</v>
-      </c>
-      <c r="C134" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B135" s="3">
-        <v>1</v>
-      </c>
-      <c r="C135" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B136" s="3">
-        <v>1</v>
-      </c>
-      <c r="C136" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1</v>
-      </c>
-      <c r="C137" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1</v>
-      </c>
-      <c r="C139" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="4">
-        <v>7.2577367973281071E-6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1" t="s">
+      <c r="A131" s="1" t="s">
         <v>81</v>
       </c>
     </row>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
     <t>Serbia</t>
   </si>
   <si>
@@ -247,9 +244,6 @@
     <t>Singapur</t>
   </si>
   <si>
-    <t>Egipto</t>
-  </si>
-  <si>
     <t>Arabia Saudita</t>
   </si>
   <si>
@@ -307,15 +301,9 @@
     <t>Fiyi, Islas</t>
   </si>
   <si>
-    <t>Tayikistán</t>
-  </si>
-  <si>
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>Bermudas, Islas (R. Unido)</t>
-  </si>
-  <si>
     <t>Marruecos</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>Argelia</t>
   </si>
   <si>
-    <t>Liberia</t>
-  </si>
-  <si>
     <t>Gambia</t>
   </si>
   <si>
@@ -358,49 +343,79 @@
     <t>Eslovenia</t>
   </si>
   <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Omán</t>
-  </si>
-  <si>
-    <t>Costa de Marfil</t>
-  </si>
-  <si>
-    <t>Septiembre 2021</t>
-  </si>
-  <si>
     <t>Kirguistán</t>
   </si>
   <si>
-    <t>Camerún</t>
-  </si>
-  <si>
-    <t>Antigua y Barbuda</t>
-  </si>
-  <si>
     <t>Letonia</t>
   </si>
   <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Ruanda</t>
   </si>
   <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Congo, Rep. Dem.</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sudán</t>
+    <t>Octubre 2021</t>
+  </si>
+  <si>
+    <t>Nígeria</t>
+  </si>
+  <si>
+    <t>Zimbabue</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Túnez</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Afganistán</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Etiopía</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>República de Micronesia (EUA)</t>
+  </si>
+  <si>
+    <t>República de Palaos (EUA)</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
   </si>
 </sst>
 </file>
@@ -851,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C131"/>
+  <dimension ref="A8:C136"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -877,7 +892,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -896,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>116044</v>
+        <v>155986</v>
       </c>
       <c r="C13" s="4">
-        <v>0.94236689805984497</v>
+        <v>0.91441804170608521</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -907,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>2193</v>
+        <v>9188</v>
       </c>
       <c r="C14" s="4">
-        <v>1.7808852717280388E-2</v>
+        <v>5.3861711174249649E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -918,32 +933,32 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>828</v>
+        <v>628</v>
       </c>
       <c r="C15" s="4">
-        <v>6.7239995114505291E-3</v>
+        <v>3.681449219584465E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>450</v>
+        <v>342</v>
       </c>
       <c r="C16" s="4">
-        <v>3.6543474998325109E-3</v>
+        <v>2.0048655569553375E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C17" s="4">
-        <v>1.9489852711558342E-3</v>
+        <v>1.6707213362678885E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -951,98 +966,98 @@
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C18" s="4">
-        <v>1.9165022531524301E-3</v>
+        <v>1.4772693393751979E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C19" s="4">
-        <v>1.7622075974941254E-3</v>
+        <v>1.1724360520020127E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C20" s="4">
-        <v>1.6322751762345433E-3</v>
+        <v>1.1665738420560956E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="C21" s="4">
-        <v>1.307444297708571E-3</v>
+        <v>1.0903654620051384E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4">
-        <v>1.2099950108677149E-3</v>
+        <v>9.9657056853175163E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" s="3">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4">
-        <v>1.1531496420502663E-3</v>
+        <v>9.7898405510932207E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B24" s="3">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0963042732328176E-3</v>
+        <v>9.1450009495019913E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4">
-        <v>1.0150965536013246E-3</v>
+        <v>9.0863794321194291E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C26" s="4">
-        <v>9.8261341918259859E-4</v>
+        <v>8.8518921984359622E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1050,670 +1065,670 @@
         <v>7</v>
       </c>
       <c r="B27" s="3">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4">
-        <v>9.1764726676046848E-4</v>
+        <v>8.6760264821350574E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C28" s="4">
-        <v>8.6892262334004045E-4</v>
+        <v>8.3242956316098571E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4">
-        <v>8.283187635242939E-4</v>
+        <v>8.2656741142272949E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C30" s="4">
-        <v>7.8771490370854735E-4</v>
+        <v>8.1484304973855615E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4">
-        <v>7.4711104389280081E-4</v>
+        <v>7.3863466968759894E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C32" s="4">
-        <v>6.9026561686769128E-4</v>
+        <v>6.74150709528476E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B33" s="3">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C33" s="4">
-        <v>6.8214483326300979E-4</v>
+        <v>6.2725326279178262E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B34" s="3">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4">
-        <v>6.0905789723619819E-4</v>
+        <v>5.6863145437091589E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4">
-        <v>6.009371136315167E-4</v>
+        <v>5.3932057926431298E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C36" s="4">
-        <v>5.5221252841874957E-4</v>
+        <v>4.4552568579092622E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C37" s="4">
-        <v>4.6288402518257499E-4</v>
+        <v>4.1621478158049285E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B38" s="3">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C38" s="4">
-        <v>4.547632415778935E-4</v>
+        <v>3.8104169652797282E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B39" s="3">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C39" s="4">
-        <v>4.1415938176214695E-4</v>
+        <v>3.7517951568588614E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="B40" s="3">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C40" s="4">
-        <v>3.5731398384086788E-4</v>
+        <v>3.6345518310554326E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>3.4919320023618639E-4</v>
+        <v>2.9897119384258986E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B42" s="3">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4">
-        <v>3.4107241663150489E-4</v>
+        <v>2.9310901300050318E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C43" s="4">
-        <v>3.3295166213065386E-4</v>
+        <v>2.8724683215841651E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C44" s="4">
-        <v>3.3295166213065386E-4</v>
+        <v>2.5207374710589647E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4">
-        <v>3.0858934042043984E-4</v>
+        <v>2.1690066205337644E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B46" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4">
-        <v>2.8422701871022582E-4</v>
+        <v>2.1690066205337644E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B47" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4">
-        <v>2.6798548060469329E-4</v>
+        <v>2.1690066205337644E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C48" s="4">
-        <v>2.598646970000118E-4</v>
+        <v>2.1103848121128976E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B49" s="3">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4">
-        <v>2.1114006813149899E-4</v>
+        <v>2.0517630036920309E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B50" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4">
-        <v>2.0301929907873273E-4</v>
+        <v>1.9345193868502975E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B51" s="3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C51" s="4">
-        <v>2.0301929907873273E-4</v>
+        <v>1.9345193868502975E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B52" s="3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4">
-        <v>1.867777609732002E-4</v>
+        <v>1.7586541071068496E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B53" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C53" s="4">
-        <v>1.6241543926298618E-4</v>
+        <v>1.7000322986859828E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C54" s="4">
-        <v>1.5429467021021992E-4</v>
+        <v>1.5827886818442494E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B55" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C55" s="4">
-        <v>1.4617390115745366E-4</v>
+        <v>1.4655450650025159E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="B56" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4">
-        <v>1.2181157944723964E-4</v>
+        <v>1.4655450650025159E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B57" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C57" s="4">
-        <v>1.2181157944723964E-4</v>
+        <v>1.4655450650025159E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B58" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C58" s="4">
-        <v>1.1369081039447337E-4</v>
+        <v>1.4069232565816492E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
-        <v>1.1369081039447337E-4</v>
+        <v>1.3483014481607825E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B60" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C60" s="4">
-        <v>1.055700340657495E-4</v>
+        <v>1.3483014481607825E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="B61" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4">
-        <v>9.7449265012983233E-5</v>
+        <v>1.3483014481607825E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4">
-        <v>9.7449265012983233E-5</v>
+        <v>1.1724360228981823E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B63" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C63" s="4">
-        <v>8.9328495960216969E-5</v>
+        <v>1.1138142144773155E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B64" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C64" s="4">
-        <v>8.9328495960216969E-5</v>
+        <v>1.1138142144773155E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B65" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C65" s="4">
-        <v>8.9328495960216969E-5</v>
+        <v>1.1138142144773155E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B66" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C66" s="4">
-        <v>7.3086950578726828E-5</v>
+        <v>8.2070524513255805E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B67" s="3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4">
-        <v>6.496617425000295E-5</v>
+        <v>8.2070524513255805E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4">
-        <v>6.496617425000295E-5</v>
+        <v>7.6208343671169132E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B69" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C69" s="4">
-        <v>6.496617425000295E-5</v>
+        <v>6.4483981986995786E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B70" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C70" s="4">
-        <v>6.496617425000295E-5</v>
+        <v>6.4483981986995786E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B71" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C71" s="4">
-        <v>5.6845405197236687E-5</v>
+        <v>6.4483981986995786E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B72" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4">
-        <v>5.6845405197236687E-5</v>
+        <v>6.4483981986995786E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C73" s="4">
-        <v>5.6845405197236687E-5</v>
+        <v>6.4483981986995786E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B74" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C74" s="4">
-        <v>4.8724632506491616E-5</v>
+        <v>5.8621801144909114E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75" s="4">
-        <v>4.8724632506491616E-5</v>
+        <v>5.2759620302822441E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B76" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4">
-        <v>4.8724632506491616E-5</v>
+        <v>5.2759620302822441E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B77" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C77" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>5.2759620302822441E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>5.2759620302822441E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>4.6897439460735768E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>4.6897439460735768E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B81" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>4.1035262256627902E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>4.1035262256627902E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" s="4">
-        <v>4.0603859815746546E-5</v>
+        <v>4.1035262256627902E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C84" s="4">
-        <v>3.2483087125001475E-5</v>
+        <v>3.517308141454123E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B85" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C85" s="4">
-        <v>3.2483087125001475E-5</v>
+        <v>3.517308141454123E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="4">
-        <v>3.2483087125001475E-5</v>
+        <v>2.9310900572454557E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="B87" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C87" s="4">
-        <v>3.2483087125001475E-5</v>
+        <v>2.9310900572454557E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1721,340 +1736,340 @@
         <v>91</v>
       </c>
       <c r="B88" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
-        <v>3.2483087125001475E-5</v>
+        <v>2.9310900572454557E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B89" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>2.9310900572454557E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B90" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>2.9310900572454557E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B91" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>2.3448719730367884E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>2.3448719730367884E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B93" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>2.3448719730367884E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B94" s="3">
         <v>3</v>
       </c>
       <c r="C94" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B95" s="3">
         <v>3</v>
       </c>
       <c r="C95" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B96" s="3">
         <v>3</v>
       </c>
       <c r="C96" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B97" s="3">
         <v>3</v>
       </c>
       <c r="C97" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B98" s="3">
         <v>3</v>
       </c>
       <c r="C98" s="4">
-        <v>2.4362316253245808E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B100" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B101" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B102" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C102" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.7586540707270615E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103" s="3">
         <v>2</v>
       </c>
       <c r="C103" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B104" s="3">
         <v>2</v>
       </c>
       <c r="C104" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B105" s="3">
         <v>2</v>
       </c>
       <c r="C105" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B106" s="3">
         <v>2</v>
       </c>
       <c r="C106" s="4">
-        <v>1.6241543562500738E-5</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="B108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B116" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B117" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>1.1724359865183942E-5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B118" s="3">
         <v>1</v>
       </c>
       <c r="C118" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2065,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2076,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2087,111 +2102,166 @@
         <v>1</v>
       </c>
       <c r="C121" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
       <c r="C122" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>8.1207717812503688E-6</v>
+        <v>5.862179932591971E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1" t="s">
-        <v>81</v>
+      <c r="A131" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B131" s="3">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4">
+        <v>5.862179932591971E-6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="4">
+        <v>5.862179932591971E-6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" s="3">
+        <v>1</v>
+      </c>
+      <c r="C133" s="4">
+        <v>5.862179932591971E-6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
+      <c r="C134" s="4">
+        <v>5.862179932591971E-6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
+      <c r="C135" s="4">
+        <v>5.862179932591971E-6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -286,9 +286,6 @@
     <t>Moldavia</t>
   </si>
   <si>
-    <t>Irak</t>
-  </si>
-  <si>
     <t>Líbano</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>Argelia</t>
   </si>
   <si>
-    <t>Gambia</t>
-  </si>
-  <si>
     <t>Luxemburgo</t>
   </si>
   <si>
@@ -349,27 +343,15 @@
     <t>Letonia</t>
   </si>
   <si>
-    <t>Ruanda</t>
-  </si>
-  <si>
     <t>Barbados</t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Octubre 2021</t>
-  </si>
-  <si>
-    <t>Nígeria</t>
-  </si>
-  <si>
     <t>Zimbabue</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -379,9 +361,6 @@
     <t>Túnez</t>
   </si>
   <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -415,7 +394,58 @@
     <t>Uganda</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Noviembre 2021</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Egipto</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Bermudas, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Camerún</t>
+  </si>
+  <si>
+    <t>Gabón</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Libia</t>
+  </si>
+  <si>
+    <t>San Vicente y Las Granadinas</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Turkmenistán</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Burundi</t>
   </si>
 </sst>
 </file>
@@ -866,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C136"/>
+  <dimension ref="A8:C146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+      <selection activeCell="A136" sqref="A136:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -892,7 +922,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -900,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -911,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>155986</v>
+        <v>187492</v>
       </c>
       <c r="C13" s="4">
-        <v>0.91441804170608521</v>
+        <v>0.8377995491027832</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -922,109 +952,109 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>9188</v>
+        <v>27341</v>
       </c>
       <c r="C14" s="4">
-        <v>5.3861711174249649E-2</v>
+        <v>0.1221720278263092</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>628</v>
+        <v>2036</v>
       </c>
       <c r="C15" s="4">
-        <v>3.681449219584465E-3</v>
+        <v>9.097774513065815E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>342</v>
+        <v>738</v>
       </c>
       <c r="C16" s="4">
-        <v>2.0048655569553375E-3</v>
+        <v>3.2977196387946606E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="C17" s="4">
-        <v>1.6707213362678885E-3</v>
+        <v>1.5014008386060596E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="C18" s="4">
-        <v>1.4772693393751979E-3</v>
+        <v>1.4656531857326627E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>200</v>
+        <v>322</v>
       </c>
       <c r="C19" s="4">
-        <v>1.1724360520020127E-3</v>
+        <v>1.4388425042852759E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
-        <v>199</v>
+        <v>297</v>
       </c>
       <c r="C20" s="4">
-        <v>1.1665738420560956E-3</v>
+        <v>1.3271310599520802E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>186</v>
+        <v>282</v>
       </c>
       <c r="C21" s="4">
-        <v>1.0903654620051384E-3</v>
+        <v>1.2601042399182916E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="3">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="C22" s="4">
-        <v>9.9657056853175163E-4</v>
+        <v>1.1886090505868196E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="C23" s="4">
-        <v>9.7898405510932207E-4</v>
+        <v>1.0277446126565337E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1032,109 +1062,109 @@
         <v>10</v>
       </c>
       <c r="B24" s="3">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4">
-        <v>9.1450009495019913E-4</v>
+        <v>1.0098707862198353E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C25" s="4">
-        <v>9.0863794321194291E-4</v>
+        <v>9.9199695978313684E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4">
-        <v>8.8518921984359622E-4</v>
+        <v>9.2050171224400401E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B27" s="3">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C27" s="4">
-        <v>8.6760264821350574E-4</v>
+        <v>8.6241180542856455E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B28" s="3">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C28" s="4">
-        <v>8.3242956316098571E-4</v>
+        <v>6.6133134532719851E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B29" s="3">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4">
-        <v>8.2656741142272949E-4</v>
+        <v>6.4792594639584422E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4">
-        <v>8.1484304973855615E-4</v>
+        <v>6.4792594639584422E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C31" s="4">
-        <v>7.3863466968759894E-4</v>
+        <v>6.2111526494845748E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B32" s="3">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C32" s="4">
-        <v>6.74150709528476E-4</v>
+        <v>6.1664677923545241E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="3">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C33" s="4">
-        <v>6.2725326279178262E-4</v>
+        <v>6.1217835173010826E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1142,648 +1172,648 @@
         <v>19</v>
       </c>
       <c r="B34" s="3">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4">
-        <v>5.6863145437091589E-4</v>
+        <v>5.9877295279875398E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" s="3">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4">
-        <v>5.3932057926431298E-4</v>
+        <v>5.317461327649653E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="C36" s="4">
-        <v>4.4552568579092622E-4</v>
+        <v>5.2280921954661608E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B37" s="3">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C37" s="4">
-        <v>4.1621478158049285E-4</v>
+        <v>5.0493539310991764E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B38" s="3">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4">
-        <v>3.8104169652797282E-4</v>
+        <v>4.9599847989156842E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4">
-        <v>3.7517951568588614E-4</v>
+        <v>4.8259313916787505E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B40" s="3">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4">
-        <v>3.6345518310554326E-4</v>
+        <v>4.7812468255870044E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4">
-        <v>2.9897119384258986E-4</v>
+        <v>4.4684548629447818E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4">
-        <v>2.9310901300050318E-4</v>
+        <v>3.6641329643316567E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B43" s="3">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4">
-        <v>2.8724683215841651E-4</v>
+        <v>3.6194483982399106E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B44" s="3">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C44" s="4">
-        <v>2.5207374710589647E-4</v>
+        <v>3.3960258588194847E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="3">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C45" s="4">
-        <v>2.1690066205337644E-4</v>
+        <v>2.5917039602063596E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4">
-        <v>2.1690066205337644E-4</v>
+        <v>2.5917039602063596E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>2.1690066205337644E-4</v>
+        <v>2.5470193941146135E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4">
-        <v>2.1103848121128976E-4</v>
+        <v>2.278911997564137E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B49" s="3">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4">
-        <v>2.0517630036920309E-4</v>
+        <v>2.1001738787163049E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C50" s="4">
-        <v>1.9345193868502975E-4</v>
+        <v>2.0108047465328127E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C51" s="4">
-        <v>1.9345193868502975E-4</v>
+        <v>1.8767510482575744E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B52" s="3">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C52" s="4">
-        <v>1.7586541071068496E-4</v>
+        <v>1.8767510482575744E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C53" s="4">
-        <v>1.7000322986859828E-4</v>
+        <v>1.8320664821658283E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B54" s="3">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C54" s="4">
-        <v>1.5827886818442494E-4</v>
+        <v>1.8320664821658283E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C55" s="4">
-        <v>1.4655450650025159E-4</v>
+        <v>1.5639592311345041E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B56" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C56" s="4">
-        <v>1.4655450650025159E-4</v>
+        <v>1.5639592311345041E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B57" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C57" s="4">
-        <v>1.4655450650025159E-4</v>
+        <v>1.5639592311345041E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C58" s="4">
-        <v>1.4069232565816492E-4</v>
+        <v>1.519274665042758E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C59" s="4">
-        <v>1.3483014481607825E-4</v>
+        <v>1.2958519801031798E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C60" s="4">
-        <v>1.3483014481607825E-4</v>
+        <v>1.2958519801031798E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="B61" s="3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4">
-        <v>1.3483014481607825E-4</v>
+        <v>1.1617982818279415E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="3">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C62" s="4">
-        <v>1.1724360228981823E-4</v>
+        <v>1.1617982818279415E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B63" s="3">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C63" s="4">
-        <v>1.1138142144773155E-4</v>
+        <v>1.1171137157361954E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4">
-        <v>1.1138142144773155E-4</v>
+        <v>1.0724292224040255E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B65" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C65" s="4">
-        <v>1.1138142144773155E-4</v>
+        <v>9.8306009022053331E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C66" s="4">
-        <v>8.2070524513255805E-5</v>
+        <v>9.3837552412878722E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C67" s="4">
-        <v>8.2070524513255805E-5</v>
+        <v>9.3837552412878722E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4">
-        <v>7.6208343671169132E-5</v>
+        <v>8.9369095803704113E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B69" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C69" s="4">
-        <v>6.4483981986995786E-5</v>
+        <v>8.4900646470487118E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C70" s="4">
-        <v>6.4483981986995786E-5</v>
+        <v>8.0432189861312509E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B71" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4">
-        <v>6.4483981986995786E-5</v>
+        <v>8.0432189861312509E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C72" s="4">
-        <v>6.4483981986995786E-5</v>
+        <v>7.5963733252137899E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C73" s="4">
-        <v>6.4483981986995786E-5</v>
+        <v>6.7026827309746295E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C74" s="4">
-        <v>5.8621801144909114E-5</v>
+        <v>6.2558370700571686E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B75" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C75" s="4">
-        <v>5.2759620302822441E-5</v>
+        <v>6.2558370700571686E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B76" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C76" s="4">
-        <v>5.2759620302822441E-5</v>
+        <v>5.8089914091397077E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B77" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C77" s="4">
-        <v>5.2759620302822441E-5</v>
+        <v>5.8089914091397077E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C78" s="4">
-        <v>5.2759620302822441E-5</v>
+        <v>5.3621461120201275E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B79" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C79" s="4">
-        <v>4.6897439460735768E-5</v>
+        <v>5.3621461120201275E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B80" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" s="4">
-        <v>4.6897439460735768E-5</v>
+        <v>5.3621461120201275E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B81" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C81" s="4">
-        <v>4.1035262256627902E-5</v>
+        <v>4.9153004511026666E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B82" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C82" s="4">
-        <v>4.1035262256627902E-5</v>
+        <v>4.4684547901852056E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B83" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C83" s="4">
-        <v>4.1035262256627902E-5</v>
+        <v>4.4684547901852056E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B84" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4">
-        <v>3.517308141454123E-5</v>
+        <v>4.0216094930656254E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B85" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" s="4">
-        <v>3.517308141454123E-5</v>
+        <v>4.0216094930656254E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C86" s="4">
-        <v>2.9310900572454557E-5</v>
+        <v>4.0216094930656254E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B87" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C87" s="4">
-        <v>2.9310900572454557E-5</v>
+        <v>4.0216094930656254E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B88" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C88" s="4">
-        <v>2.9310900572454557E-5</v>
+        <v>3.5747638321481645E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B89" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" s="4">
-        <v>2.9310900572454557E-5</v>
+        <v>3.5747638321481645E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" s="4">
-        <v>2.9310900572454557E-5</v>
+        <v>3.5747638321481645E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B91" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C91" s="4">
-        <v>2.3448719730367884E-5</v>
+        <v>3.5747638321481645E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B92" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C92" s="4">
-        <v>2.3448719730367884E-5</v>
+        <v>3.1279185350285843E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1791,476 +1821,586 @@
         <v>64</v>
       </c>
       <c r="B93" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4">
-        <v>2.3448719730367884E-5</v>
+        <v>2.6810730560100637E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B94" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.6810730560100637E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B95" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.6810730560100637E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B96" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B97" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B98" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C98" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B99" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B100" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C100" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="B101" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C101" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>2.2342273950926028E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B102" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4">
-        <v>1.7586540707270615E-5</v>
+        <v>1.7873819160740823E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.7873819160740823E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B104" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.7873819160740823E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="B105" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.3405365280050319E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B106" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.3405365280050319E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B107" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C107" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.3405365280050319E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.3405365280050319E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B109" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>1.3405365280050319E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B110" s="3">
         <v>2</v>
       </c>
       <c r="C110" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B111" s="3">
         <v>2</v>
       </c>
       <c r="C111" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B112" s="3">
         <v>2</v>
       </c>
       <c r="C112" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B113" s="3">
         <v>2</v>
       </c>
       <c r="C113" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B114" s="3">
         <v>2</v>
       </c>
       <c r="C114" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3">
         <v>2</v>
       </c>
       <c r="C115" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B116" s="3">
         <v>2</v>
       </c>
       <c r="C116" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B117" s="3">
         <v>2</v>
       </c>
       <c r="C117" s="4">
-        <v>1.1724359865183942E-5</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B120" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="B121" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B122" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B123" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B125" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B126" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>8.9369095803704113E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="4">
-        <v>5.862179932591971E-6</v>
+        <v>4.4684547901852056E-6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1</v>
+      </c>
+      <c r="C137" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
+      <c r="C138" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
+      <c r="C139" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
+      <c r="C140" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
+      <c r="C141" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
+      <c r="C142" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1</v>
+      </c>
+      <c r="C143" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4">
+        <v>4.4684547901852056E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -310,9 +310,6 @@
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Santa Lucía</t>
-  </si>
-  <si>
     <t>Argelia</t>
   </si>
   <si>
@@ -355,9 +352,6 @@
     <t>Montenegro</t>
   </si>
   <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
     <t>Túnez</t>
   </si>
   <si>
@@ -382,21 +376,12 @@
     <t>Etiopía</t>
   </si>
   <si>
-    <t>Camboya</t>
-  </si>
-  <si>
     <t>República de Micronesia (EUA)</t>
   </si>
   <si>
-    <t>República de Palaos (EUA)</t>
-  </si>
-  <si>
     <t>Uganda</t>
   </si>
   <si>
-    <t>Noviembre 2021</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
     <t>Liberia</t>
   </si>
   <si>
-    <t>Bermudas, Islas (R. Unido)</t>
-  </si>
-  <si>
     <t>Camerún</t>
   </si>
   <si>
@@ -424,28 +406,70 @@
     <t>Qatar</t>
   </si>
   <si>
-    <t>Antigua y Barbuda</t>
-  </si>
-  <si>
     <t>Senegal</t>
   </si>
   <si>
-    <t>Libia</t>
-  </si>
-  <si>
     <t>San Vicente y Las Granadinas</t>
   </si>
   <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Turkmenistán</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
     <t>Burundi</t>
+  </si>
+  <si>
+    <t>Diciembre 2021</t>
+  </si>
+  <si>
+    <t>Azerbaiyán</t>
+  </si>
+  <si>
+    <t>Irak</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Chipre</t>
+  </si>
+  <si>
+    <t>Bután</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Bahréin</t>
+  </si>
+  <si>
+    <t>Costa de Marfil</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Islas Marshall (EUA)</t>
+  </si>
+  <si>
+    <t>Congo, Rep. Dem.</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Samoa Occidental</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Apátrida</t>
   </si>
 </sst>
 </file>
@@ -896,11 +920,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C146"/>
+  <dimension ref="A8:C154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:C145"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -922,7 +944,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -930,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -941,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>187492</v>
+        <v>259506</v>
       </c>
       <c r="C13" s="4">
-        <v>0.8377995491027832</v>
+        <v>0.85069429874420166</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -952,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>27341</v>
+        <v>33602</v>
       </c>
       <c r="C14" s="4">
-        <v>0.1221720278263092</v>
+        <v>0.11015170812606812</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -963,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>2036</v>
+        <v>3436</v>
       </c>
       <c r="C15" s="4">
-        <v>9.097774513065815E-3</v>
+        <v>1.1263653635978699E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -974,65 +996,65 @@
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>738</v>
+        <v>657</v>
       </c>
       <c r="C16" s="4">
-        <v>3.2977196387946606E-3</v>
+        <v>2.1537311840802431E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>336</v>
+        <v>632</v>
       </c>
       <c r="C17" s="4">
-        <v>1.5014008386060596E-3</v>
+        <v>2.0717778243124485E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>328</v>
+        <v>551</v>
       </c>
       <c r="C18" s="4">
-        <v>1.4656531857326627E-3</v>
+        <v>1.806249376386404E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>322</v>
+        <v>508</v>
       </c>
       <c r="C19" s="4">
-        <v>1.4388425042852759E-3</v>
+        <v>1.6652898630127311E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3">
-        <v>297</v>
+        <v>397</v>
       </c>
       <c r="C20" s="4">
-        <v>1.3271310599520802E-3</v>
+        <v>1.3014174764975905E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C21" s="4">
-        <v>1.2601042399182916E-3</v>
+        <v>9.8671705927699804E-4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1040,21 +1062,21 @@
         <v>9</v>
       </c>
       <c r="B22" s="3">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="C22" s="4">
-        <v>1.1886090505868196E-3</v>
+        <v>9.5721386605873704E-4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" s="3">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="C23" s="4">
-        <v>1.0277446126565337E-3</v>
+        <v>8.8509498164057732E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1062,153 +1084,153 @@
         <v>10</v>
       </c>
       <c r="B24" s="3">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0098707862198353E-3</v>
+        <v>8.2608865341171622E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C25" s="4">
-        <v>9.9199695978313684E-4</v>
+        <v>7.5069168815389276E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B26" s="3">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C26" s="4">
-        <v>9.2050171224400401E-4</v>
+        <v>7.3430105112493038E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="3">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C27" s="4">
-        <v>8.6241180542856455E-4</v>
+        <v>7.2446663398295641E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>148</v>
+        <v>203</v>
       </c>
       <c r="C28" s="4">
-        <v>6.6133134532719851E-4</v>
+        <v>6.6546030575409532E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C29" s="4">
-        <v>6.4792594639584422E-4</v>
+        <v>6.0317583847790956E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B30" s="3">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="C30" s="4">
-        <v>6.4792594639584422E-4</v>
+        <v>5.9334147954359651E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C31" s="4">
-        <v>6.2111526494845748E-4</v>
+        <v>5.9006334049627185E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B32" s="3">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="C32" s="4">
-        <v>6.1664677923545241E-4</v>
+        <v>5.3433515131473541E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B33" s="3">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="C33" s="4">
-        <v>6.1217835173010826E-4</v>
+        <v>5.1466637523844838E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C34" s="4">
-        <v>5.9877295279875398E-4</v>
+        <v>4.9827568000182509E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4">
-        <v>5.317461327649653E-4</v>
+        <v>4.6221626689657569E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4">
-        <v>5.2280921954661608E-4</v>
+        <v>4.6221626689657569E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4">
-        <v>5.0493539310991764E-4</v>
+        <v>4.5566001790575683E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1216,87 +1238,87 @@
         <v>25</v>
       </c>
       <c r="B38" s="3">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4">
-        <v>4.9599847989156842E-4</v>
+        <v>3.9009741158224642E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4">
-        <v>4.8259313916787505E-4</v>
+        <v>3.8354116259142756E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="3">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C40" s="4">
-        <v>4.7812468255870044E-4</v>
+        <v>3.7042863550595939E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C41" s="4">
-        <v>4.4684548629447818E-4</v>
+        <v>3.442036104388535E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4">
-        <v>3.6641329643316567E-4</v>
+        <v>3.2781297340989113E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B43" s="3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4">
-        <v>3.6194483982399106E-4</v>
+        <v>2.8519728220999241E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B44" s="3">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4">
-        <v>3.3960258588194847E-4</v>
+        <v>2.8191914316266775E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4">
-        <v>2.5917039602063596E-4</v>
+        <v>2.7536289417184889E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1304,890 +1326,890 @@
         <v>24</v>
       </c>
       <c r="B46" s="3">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4">
-        <v>2.5917039602063596E-4</v>
+        <v>2.6225036708638072E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C47" s="4">
-        <v>2.5470193941146135E-4</v>
+        <v>2.2291281493380666E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C48" s="4">
-        <v>2.278911997564137E-4</v>
+        <v>1.8685338727664202E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
-        <v>2.1001738787163049E-4</v>
+        <v>1.8685338727664202E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4">
-        <v>2.0108047465328127E-4</v>
+        <v>1.8029712373390794E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B51" s="3">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C51" s="4">
-        <v>1.8767510482575744E-4</v>
+        <v>1.7701899923849851E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="3">
         <v>47</v>
       </c>
-      <c r="B52" s="3">
-        <v>42</v>
-      </c>
       <c r="C52" s="4">
-        <v>1.8767510482575744E-4</v>
+        <v>1.5407209866680205E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C53" s="4">
-        <v>1.8320664821658283E-4</v>
+        <v>1.5407209866680205E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B54" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C54" s="4">
-        <v>1.8320664821658283E-4</v>
+        <v>1.5079395961947739E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C55" s="4">
-        <v>1.5639592311345041E-4</v>
+        <v>1.3440330803859979E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B56" s="3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C56" s="4">
-        <v>1.5639592311345041E-4</v>
+        <v>1.3440330803859979E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B57" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C57" s="4">
-        <v>1.5639592311345041E-4</v>
+        <v>1.2784705904778093E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C58" s="4">
-        <v>1.519274665042758E-4</v>
+        <v>1.2456892000045627E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
         <v>38</v>
       </c>
-      <c r="B59" s="3">
-        <v>29</v>
-      </c>
       <c r="C59" s="4">
-        <v>1.2958519801031798E-4</v>
+        <v>1.2456892000045627E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B60" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C60" s="4">
-        <v>1.2958519801031798E-4</v>
+        <v>1.2129079550504684E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B61" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C61" s="4">
-        <v>1.1617982818279415E-4</v>
+        <v>1.2129079550504684E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B62" s="3">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C62" s="4">
-        <v>1.1617982818279415E-4</v>
+        <v>1.2129079550504684E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C63" s="4">
-        <v>1.1171137157361954E-4</v>
+        <v>1.0490015120012686E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B64" s="3">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C64" s="4">
-        <v>1.0724292224040255E-4</v>
+        <v>1.0162201942875981E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C65" s="4">
-        <v>9.8306009022053331E-5</v>
+        <v>9.834388765739277E-5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B66" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C66" s="4">
-        <v>9.3837552412878722E-5</v>
+        <v>9.834388765739277E-5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C67" s="4">
-        <v>9.3837552412878722E-5</v>
+        <v>9.1787631390616298E-5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C68" s="4">
-        <v>8.9369095803704113E-5</v>
+        <v>8.8509499619249254E-5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C69" s="4">
-        <v>8.4900646470487118E-5</v>
+        <v>8.8509499619249254E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B70" s="3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C70" s="4">
-        <v>8.0432189861312509E-5</v>
+        <v>8.5231367847882211E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="B71" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C71" s="4">
-        <v>8.0432189861312509E-5</v>
+        <v>8.1953243352472782E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C72" s="4">
-        <v>7.5963733252137899E-5</v>
+        <v>7.8675111581105739E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C73" s="4">
-        <v>6.7026827309746295E-5</v>
+        <v>7.5396979809738696E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B74" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C74" s="4">
-        <v>6.2558370700571686E-5</v>
+        <v>6.8840723542962223E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="B75" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75" s="4">
-        <v>6.2558370700571686E-5</v>
+        <v>5.9006331866839901E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B76" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C76" s="4">
-        <v>5.8089914091397077E-5</v>
+        <v>5.9006331866839901E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B77" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C77" s="4">
-        <v>5.8089914091397077E-5</v>
+        <v>5.5728203733451664E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B78" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C78" s="4">
-        <v>5.3621461120201275E-5</v>
+        <v>4.5893815695308149E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B79" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" s="4">
-        <v>5.3621461120201275E-5</v>
+        <v>4.2615683923941106E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B80" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80" s="4">
-        <v>5.3621461120201275E-5</v>
+        <v>4.2615683923941106E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B81" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" s="4">
-        <v>4.9153004511026666E-5</v>
+        <v>3.9337555790552869E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B82" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C82" s="4">
-        <v>4.4684547901852056E-5</v>
+        <v>3.9337555790552869E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B83" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C83" s="4">
-        <v>4.4684547901852056E-5</v>
+        <v>3.6059427657164633E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C84" s="4">
-        <v>4.0216094930656254E-5</v>
+        <v>3.6059427657164633E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B85" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4">
-        <v>4.0216094930656254E-5</v>
+        <v>3.6059427657164633E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="B86" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C86" s="4">
-        <v>4.0216094930656254E-5</v>
+        <v>3.278129588579759E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4">
-        <v>4.0216094930656254E-5</v>
+        <v>3.278129588579759E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B88" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" s="4">
-        <v>3.5747638321481645E-5</v>
+        <v>2.950316593341995E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B89" s="3">
         <v>8</v>
       </c>
       <c r="C89" s="4">
-        <v>3.5747638321481645E-5</v>
+        <v>2.6225037800031714E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3">
         <v>8</v>
       </c>
       <c r="C90" s="4">
-        <v>3.5747638321481645E-5</v>
+        <v>2.6225037800031714E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B91" s="3">
         <v>8</v>
       </c>
       <c r="C91" s="4">
-        <v>3.5747638321481645E-5</v>
+        <v>2.6225037800031714E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B92" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" s="4">
-        <v>3.1279185350285843E-5</v>
+        <v>2.6225037800031714E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B93" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" s="4">
-        <v>2.6810730560100637E-5</v>
+        <v>2.6225037800031714E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B94" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C94" s="4">
-        <v>2.6810730560100637E-5</v>
+        <v>2.2946907847654074E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B95" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" s="4">
-        <v>2.6810730560100637E-5</v>
+        <v>2.2946907847654074E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B96" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C96" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B97" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B98" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B99" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B100" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="B101" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" s="4">
-        <v>2.2342273950926028E-5</v>
+        <v>1.9668777895276435E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B102" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" s="4">
-        <v>1.7873819160740823E-5</v>
+        <v>1.6390647942898795E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B103" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103" s="4">
-        <v>1.7873819160740823E-5</v>
+        <v>1.6390647942898795E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="B104" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" s="4">
-        <v>1.7873819160740823E-5</v>
+        <v>1.6390647942898795E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4">
-        <v>1.3405365280050319E-5</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B106" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4">
-        <v>1.3405365280050319E-5</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B107" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4">
-        <v>1.3405365280050319E-5</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B108" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4">
-        <v>1.3405365280050319E-5</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B109" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4">
-        <v>1.3405365280050319E-5</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>1.3112518900015857E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B111" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C111" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B112" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B113" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C113" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C114" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C115" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B116" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>9.8343889476382174E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
       </c>
       <c r="C119" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
       </c>
       <c r="C120" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
       </c>
       <c r="C121" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>2</v>
       </c>
       <c r="C122" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B123" s="3">
         <v>2</v>
       </c>
       <c r="C123" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B124" s="3">
         <v>2</v>
       </c>
       <c r="C124" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B125" s="3">
         <v>2</v>
       </c>
       <c r="C125" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B126" s="3">
         <v>2</v>
       </c>
       <c r="C126" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2198,209 +2220,297 @@
         <v>2</v>
       </c>
       <c r="C127" s="4">
-        <v>8.9369095803704113E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>6.5562594500079285E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
       <c r="C139" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
       </c>
       <c r="C144" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B145" s="3">
         <v>1</v>
       </c>
       <c r="C145" s="4">
-        <v>4.4684547901852056E-6</v>
+        <v>3.2781297250039643E-6</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3.2781297250039643E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -310,18 +310,12 @@
     <t>Uzbekistán</t>
   </si>
   <si>
-    <t>Argelia</t>
-  </si>
-  <si>
     <t>Luxemburgo</t>
   </si>
   <si>
     <t>Albania</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -358,15 +352,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>Palestina</t>
-  </si>
-  <si>
     <t>Afganistán</t>
   </si>
   <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
     <t>Malta</t>
   </si>
   <si>
@@ -379,18 +367,12 @@
     <t>República de Micronesia (EUA)</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
     <t>Egipto</t>
   </si>
   <si>
-    <t>Emiratos Árabes Unidos</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -400,21 +382,9 @@
     <t>Camerún</t>
   </si>
   <si>
-    <t>Gabón</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
     <t>San Vicente y Las Granadinas</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Diciembre 2021</t>
   </si>
   <si>
@@ -430,46 +400,49 @@
     <t>Chipre</t>
   </si>
   <si>
-    <t>Bután</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Bahréin</t>
-  </si>
-  <si>
-    <t>Costa de Marfil</t>
-  </si>
-  <si>
     <t>Laos</t>
   </si>
   <si>
-    <t>Surinam</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
     <t>Islas Marshall (EUA)</t>
   </si>
   <si>
-    <t>Congo, Rep. Dem.</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>Samoa Occidental</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Apátrida</t>
+    <t>San Cristóbal y Nieves</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Vaticano</t>
+  </si>
+  <si>
+    <t>Botsuana</t>
+  </si>
+  <si>
+    <t>Comoras</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Mianmar (Birmania)</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Abril 2022</t>
   </si>
 </sst>
 </file>
@@ -920,9 +893,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C154"/>
+  <dimension ref="A8:C144"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -944,7 +919,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -952,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -963,10 +938,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>259506</v>
+        <v>201218</v>
       </c>
       <c r="C13" s="4">
-        <v>0.85069429874420166</v>
+        <v>0.83918458223342896</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -974,10 +949,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>33602</v>
+        <v>27738</v>
       </c>
       <c r="C14" s="4">
-        <v>0.11015170812606812</v>
+        <v>0.11568200588226318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -985,10 +960,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>3436</v>
+        <v>3155</v>
       </c>
       <c r="C15" s="4">
-        <v>1.1263653635978699E-2</v>
+        <v>1.3158004730939865E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -996,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>657</v>
+        <v>569</v>
       </c>
       <c r="C16" s="4">
-        <v>2.1537311840802431E-3</v>
+        <v>2.3730283137410879E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1007,10 +982,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>632</v>
+        <v>486</v>
       </c>
       <c r="C17" s="4">
-        <v>2.0717778243124485E-3</v>
+        <v>2.0268748048692942E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1018,10 +993,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>551</v>
+        <v>445</v>
       </c>
       <c r="C18" s="4">
-        <v>1.806249376386404E-3</v>
+        <v>1.8558833980932832E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1029,43 +1004,43 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>508</v>
+        <v>371</v>
       </c>
       <c r="C19" s="4">
-        <v>1.6652898630127311E-3</v>
+        <v>1.5472645172849298E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="C20" s="4">
-        <v>1.3014174764975905E-3</v>
+        <v>1.5097298892214894E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="C21" s="4">
-        <v>9.8671705927699804E-4</v>
+        <v>1.4638541033491492E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B22" s="3">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C22" s="4">
-        <v>9.5721386605873704E-4</v>
+        <v>1.405466697178781E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1073,43 +1048,43 @@
         <v>12</v>
       </c>
       <c r="B23" s="3">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="C23" s="4">
-        <v>8.8509498164057732E-4</v>
+        <v>9.2585640959441662E-4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="C24" s="4">
-        <v>8.2608865341171622E-4</v>
+        <v>9.1334484750404954E-4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="3">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C25" s="4">
-        <v>7.5069168815389276E-4</v>
+        <v>8.8832172332331538E-4</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="C26" s="4">
-        <v>7.3430105112493038E-4</v>
+        <v>7.8822911018505692E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1117,76 +1092,76 @@
         <v>18</v>
       </c>
       <c r="B27" s="3">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="C27" s="4">
-        <v>7.2446663398295641E-4</v>
+        <v>7.5486494461074471E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4">
-        <v>6.6546030575409532E-4</v>
+        <v>7.2984176222234964E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B29" s="3">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C29" s="4">
-        <v>6.0317583847790956E-4</v>
+        <v>7.0898915873840451E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C30" s="4">
-        <v>5.9334147954359651E-4</v>
+        <v>7.0481863804161549E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C31" s="4">
-        <v>5.9006334049627185E-4</v>
+        <v>7.0064811734482646E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
         <v>163</v>
       </c>
       <c r="C32" s="4">
-        <v>5.3433515131473541E-4</v>
+        <v>6.7979545565322042E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="3">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" s="4">
-        <v>5.1466637523844838E-4</v>
+        <v>6.6311337286606431E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1194,54 +1169,54 @@
         <v>13</v>
       </c>
       <c r="B34" s="3">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C34" s="4">
-        <v>4.9827568000182509E-4</v>
+        <v>5.9221446281298995E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C35" s="4">
-        <v>4.6221626689657569E-4</v>
+        <v>5.546797183342278E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4">
-        <v>4.6221626689657569E-4</v>
+        <v>5.5050919763743877E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C37" s="4">
-        <v>4.5566001790575683E-4</v>
+        <v>4.9629242857918143E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C38" s="4">
-        <v>3.9009741158224642E-4</v>
+        <v>4.6292820479720831E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1249,230 +1224,230 @@
         <v>46</v>
       </c>
       <c r="B39" s="3">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C39" s="4">
-        <v>3.8354116259142756E-4</v>
+        <v>4.6292820479720831E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40" s="4">
-        <v>3.7042863550595939E-4</v>
+        <v>4.5875768410041928E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" s="3">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C41" s="4">
-        <v>3.442036104388535E-4</v>
+        <v>4.462461220100522E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C42" s="4">
-        <v>3.2781297340989113E-4</v>
+        <v>4.2539348942227662E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C43" s="4">
-        <v>2.8519728220999241E-4</v>
+        <v>3.2530090538784862E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C44" s="4">
-        <v>2.8191914316266775E-4</v>
+        <v>3.2113038469105959E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B45" s="3">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C45" s="4">
-        <v>2.7536289417184889E-4</v>
+        <v>3.00277752103284E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C46" s="4">
-        <v>2.6225036708638072E-4</v>
+        <v>2.9193671070970595E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3">
         <v>68</v>
       </c>
       <c r="C47" s="4">
-        <v>2.2291281493380666E-4</v>
+        <v>2.835956693161279E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B48" s="3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C48" s="4">
-        <v>1.8685338727664202E-4</v>
+        <v>2.835956693161279E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B49" s="3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C49" s="4">
-        <v>1.8685338727664202E-4</v>
+        <v>2.5857251603156328E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50" s="4">
-        <v>1.8029712373390794E-4</v>
+        <v>2.1269674471113831E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4">
-        <v>1.7701899923849851E-4</v>
+        <v>2.0435568876564503E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="4">
-        <v>1.5407209866680205E-4</v>
+        <v>2.00185168068856E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" s="4">
-        <v>1.5407209866680205E-4</v>
+        <v>2.00185168068856E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B54" s="3">
         <v>46</v>
       </c>
       <c r="C54" s="4">
-        <v>1.5079395961947739E-4</v>
+        <v>1.9184412667527795E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C55" s="4">
-        <v>1.3440330803859979E-4</v>
+        <v>1.9184412667527795E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B56" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C56" s="4">
-        <v>1.3440330803859979E-4</v>
+        <v>1.7933255003299564E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C57" s="4">
-        <v>1.2784705904778093E-4</v>
+        <v>1.7516202933620661E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C58" s="4">
-        <v>1.2456892000045627E-4</v>
+        <v>1.6682097339071333E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B59" s="3">
         <v>38</v>
       </c>
       <c r="C59" s="4">
-        <v>1.2456892000045627E-4</v>
+        <v>1.5847993199713528E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1480,516 +1455,516 @@
         <v>70</v>
       </c>
       <c r="B60" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="4">
-        <v>1.2129079550504684E-4</v>
+        <v>1.50138876051642E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B61" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C61" s="4">
-        <v>1.2129079550504684E-4</v>
+        <v>1.3762729940935969E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B62" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C62" s="4">
-        <v>1.2129079550504684E-4</v>
+        <v>1.3762729940935969E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B63" s="3">
         <v>32</v>
       </c>
       <c r="C63" s="4">
-        <v>1.0490015120012686E-4</v>
+        <v>1.3345677871257067E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B64" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C64" s="4">
-        <v>1.0162201942875981E-4</v>
+        <v>1.2511573731899261E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B65" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C65" s="4">
-        <v>9.834388765739277E-5</v>
+        <v>1.2094520934624597E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C66" s="4">
-        <v>9.834388765739277E-5</v>
+        <v>1.1677468137349933E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C67" s="4">
-        <v>9.1787631390616298E-5</v>
+        <v>1.0426311200717464E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B68" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4">
-        <v>8.8509499619249254E-5</v>
+        <v>1.00092584034428E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B69" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C69" s="4">
-        <v>8.8509499619249254E-5</v>
+        <v>9.5922063337638974E-5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B70" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C70" s="4">
-        <v>8.5231367847882211E-5</v>
+        <v>9.5922063337638974E-5</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B71" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C71" s="4">
-        <v>8.1953243352472782E-5</v>
+        <v>9.1751535364892334E-5</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C72" s="4">
-        <v>7.8675111581105739E-5</v>
+        <v>9.1751535364892334E-5</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73" s="4">
-        <v>7.5396979809738696E-5</v>
+        <v>8.3410486695356667E-5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B74" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="4">
-        <v>6.8840723542962223E-5</v>
+        <v>7.9239965998567641E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C75" s="4">
-        <v>5.9006331866839901E-5</v>
+        <v>6.6728389356285334E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B76" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C76" s="4">
-        <v>5.9006331866839901E-5</v>
+        <v>6.2557868659496307E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B77" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C77" s="4">
-        <v>5.5728203733451664E-5</v>
+        <v>6.2557868659496307E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B78" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C78" s="4">
-        <v>4.5893815695308149E-5</v>
+        <v>6.2557868659496307E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B79" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" s="4">
-        <v>4.2615683923941106E-5</v>
+        <v>5.8387340686749667E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B80" s="3">
         <v>13</v>
       </c>
       <c r="C80" s="4">
-        <v>4.2615683923941106E-5</v>
+        <v>5.4216816351981834E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B81" s="3">
         <v>12</v>
       </c>
       <c r="C81" s="4">
-        <v>3.9337555790552869E-5</v>
+        <v>5.0046292017214E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B82" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C82" s="4">
-        <v>3.9337555790552869E-5</v>
+        <v>4.1705243347678334E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B83" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4">
-        <v>3.6059427657164633E-5</v>
+        <v>3.75347190129105E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B84" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4">
-        <v>3.6059427657164633E-5</v>
+        <v>3.75347190129105E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C85" s="4">
-        <v>3.6059427657164633E-5</v>
+        <v>3.75347190129105E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B86" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="4">
-        <v>3.278129588579759E-5</v>
+        <v>3.75347190129105E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" s="4">
-        <v>3.278129588579759E-5</v>
+        <v>3.3364194678142667E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B88" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88" s="4">
-        <v>2.950316593341995E-5</v>
+        <v>2.9193670343374833E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B89" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="4">
-        <v>2.6225037800031714E-5</v>
+        <v>2.9193670343374833E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B90" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90" s="4">
-        <v>2.6225037800031714E-5</v>
+        <v>2.9193670343374833E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B91" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" s="4">
-        <v>2.6225037800031714E-5</v>
+        <v>2.9193670343374833E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" s="4">
-        <v>2.6225037800031714E-5</v>
+        <v>2.5023146008607E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B93" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" s="4">
-        <v>2.6225037800031714E-5</v>
+        <v>2.5023146008607E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B94" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4">
-        <v>2.2946907847654074E-5</v>
+        <v>2.0852621673839167E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B95" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" s="4">
-        <v>2.2946907847654074E-5</v>
+        <v>2.0852621673839167E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B96" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>2.0852621673839167E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B97" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C97" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>2.0852621673839167E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B98" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>1.6682097339071333E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>1.6682097339071333E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B100" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>1.6682097339071333E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="B101" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4">
-        <v>1.9668777895276435E-5</v>
+        <v>1.6682097339071333E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B102" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4">
-        <v>1.6390647942898795E-5</v>
+        <v>1.6682097339071333E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B103" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="4">
-        <v>1.6390647942898795E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="B104" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C104" s="4">
-        <v>1.6390647942898795E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C105" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="B106" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C106" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1997,208 +1972,208 @@
         <v>93</v>
       </c>
       <c r="B107" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B109" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C109" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B110" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" s="4">
-        <v>1.3112518900015857E-5</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="B111" s="3">
         <v>3</v>
       </c>
       <c r="C111" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>3</v>
       </c>
       <c r="C112" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B113" s="3">
         <v>3</v>
       </c>
       <c r="C113" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>1.25115730043035E-5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B114" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B115" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B116" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B117" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4">
-        <v>9.8343889476382174E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B119" s="3">
         <v>2</v>
       </c>
       <c r="C119" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B120" s="3">
         <v>2</v>
       </c>
       <c r="C120" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B121" s="3">
         <v>2</v>
       </c>
       <c r="C121" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B122" s="3">
         <v>2</v>
       </c>
       <c r="C122" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>8.3410486695356667E-6</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B124" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B125" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2206,311 +2181,201 @@
         <v>116</v>
       </c>
       <c r="B126" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B127" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C127" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B128" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B129" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C129" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="4">
-        <v>6.5562594500079285E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
       <c r="C131" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
       <c r="C132" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
       <c r="C133" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
       <c r="C134" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
       <c r="C135" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
       <c r="C136" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
       <c r="C139" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" s="4">
-        <v>3.2781297250039643E-6</v>
+        <v>4.1705243347678334E-6</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1</v>
-      </c>
-      <c r="C144" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B145" s="3">
-        <v>1</v>
-      </c>
-      <c r="C145" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B147" s="3">
-        <v>1</v>
-      </c>
-      <c r="C147" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B148" s="3">
-        <v>1</v>
-      </c>
-      <c r="C148" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B149" s="3">
-        <v>1</v>
-      </c>
-      <c r="C149" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B151" s="3">
-        <v>1</v>
-      </c>
-      <c r="C151" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B152" s="3">
-        <v>1</v>
-      </c>
-      <c r="C152" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B153" s="3">
-        <v>1</v>
-      </c>
-      <c r="C153" s="4">
-        <v>3.2781297250039643E-6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1" t="s">
+      <c r="A144" s="1" t="s">
         <v>79</v>
       </c>
     </row>

--- a/visitantes_extranjeros_via_aerea_jalisco.xlsx
+++ b/visitantes_extranjeros_via_aerea_jalisco.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>Nacionalidad</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Marruecos</t>
   </si>
   <si>
-    <t>Dominica (Comonwealth)</t>
-  </si>
-  <si>
     <t>Uzbekistán</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>Zimbabue</t>
   </si>
   <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
     <t>Túnez</t>
   </si>
   <si>
@@ -355,18 +349,12 @@
     <t>Afganistán</t>
   </si>
   <si>
-    <t>Malta</t>
-  </si>
-  <si>
     <t>Macedonia</t>
   </si>
   <si>
     <t>Etiopía</t>
   </si>
   <si>
-    <t>República de Micronesia (EUA)</t>
-  </si>
-  <si>
     <t>Nigeria</t>
   </si>
   <si>
@@ -385,9 +373,6 @@
     <t>San Vicente y Las Granadinas</t>
   </si>
   <si>
-    <t>Diciembre 2021</t>
-  </si>
-  <si>
     <t>Azerbaiyán</t>
   </si>
   <si>
@@ -400,18 +385,9 @@
     <t>Chipre</t>
   </si>
   <si>
-    <t>Laos</t>
-  </si>
-  <si>
     <t>Tonga</t>
   </si>
   <si>
-    <t>Islas Marshall (EUA)</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>San Cristóbal y Nieves</t>
   </si>
   <si>
@@ -421,28 +397,79 @@
     <t>Mauricio</t>
   </si>
   <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Vaticano</t>
-  </si>
-  <si>
-    <t>Botsuana</t>
-  </si>
-  <si>
-    <t>Comoras</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
     <t>Mianmar (Birmania)</t>
   </si>
   <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Abril 2022</t>
+    <t>Noviembre 2022</t>
+  </si>
+  <si>
+    <t>Emiratos Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Níger</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Camboya</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Surinam</t>
+  </si>
+  <si>
+    <t>Argelia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Suazilandia</t>
+  </si>
+  <si>
+    <t>Apátrida</t>
+  </si>
+  <si>
+    <t>Lesoto</t>
+  </si>
+  <si>
+    <t>Caimán, Islas (R. Unido)</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Antigua y Barbuda</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Palestina</t>
+  </si>
+  <si>
+    <t>Santo Tomé y Príncipe</t>
   </si>
 </sst>
 </file>
@@ -893,11 +920,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:C144"/>
+  <dimension ref="A8:C154"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
@@ -919,7 +944,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -927,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>31</v>
@@ -938,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>201218</v>
+        <v>213458</v>
       </c>
       <c r="C13" s="4">
-        <v>0.83918458223342896</v>
+        <v>0.75927495956420898</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -949,10 +974,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="3">
-        <v>27738</v>
+        <v>53368</v>
       </c>
       <c r="C14" s="4">
-        <v>0.11568200588226318</v>
+        <v>0.18983118236064911</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -960,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="3">
-        <v>3155</v>
+        <v>3686</v>
       </c>
       <c r="C15" s="4">
-        <v>1.3158004730939865E-2</v>
+        <v>1.3111185282468796E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -971,10 +996,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>569</v>
+        <v>985</v>
       </c>
       <c r="C16" s="4">
-        <v>2.3730283137410879E-3</v>
+        <v>3.5036671906709671E-3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -982,10 +1007,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3">
-        <v>486</v>
+        <v>732</v>
       </c>
       <c r="C17" s="4">
-        <v>2.0268748048692942E-3</v>
+        <v>2.6037406641989946E-3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -993,32 +1018,32 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>445</v>
+        <v>676</v>
       </c>
       <c r="C18" s="4">
-        <v>1.8558833980932832E-3</v>
+        <v>2.4045472964644432E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>371</v>
+        <v>648</v>
       </c>
       <c r="C19" s="4">
-        <v>1.5472645172849298E-3</v>
+        <v>2.3049507290124893E-3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>362</v>
+        <v>635</v>
       </c>
       <c r="C20" s="4">
-        <v>1.5097298892214894E-3</v>
+        <v>2.2587093990296125E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1026,472 +1051,472 @@
         <v>8</v>
       </c>
       <c r="B21" s="3">
-        <v>351</v>
+        <v>407</v>
       </c>
       <c r="C21" s="4">
-        <v>1.4638541033491492E-3</v>
+        <v>1.447708229534328E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="C22" s="4">
-        <v>1.405466697178781E-3</v>
+        <v>1.3018703320994973E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="C23" s="4">
-        <v>9.2585640959441662E-4</v>
+        <v>1.2627430260181427E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="C24" s="4">
-        <v>9.1334484750404954E-4</v>
+        <v>1.1951596243306994E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
-        <v>213</v>
+        <v>312</v>
       </c>
       <c r="C25" s="4">
-        <v>8.8832172332331538E-4</v>
+        <v>1.1097911046817899E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B26" s="3">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="C26" s="4">
-        <v>7.8822911018505692E-4</v>
+        <v>9.9240930285304785E-4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B27" s="3">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="C27" s="4">
-        <v>7.5486494461074471E-4</v>
+        <v>9.4616803107783198E-4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3">
-        <v>175</v>
+        <v>248</v>
       </c>
       <c r="C28" s="4">
-        <v>7.2984176222234964E-4</v>
+        <v>8.8214158313348889E-4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B29" s="3">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="C29" s="4">
-        <v>7.0898915873840451E-4</v>
+        <v>8.6435652337968349E-4</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C30" s="4">
-        <v>7.0481863804161549E-4</v>
+        <v>7.8254495747387409E-4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B31" s="3">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C31" s="4">
-        <v>7.0064811734482646E-4</v>
+        <v>7.7543093357235193E-4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B32" s="3">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C32" s="4">
-        <v>6.7979545565322042E-4</v>
+        <v>6.2247895402833819E-4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C33" s="4">
-        <v>6.6311337286606431E-4</v>
+        <v>5.7268067030236125E-4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4">
-        <v>5.9221446281298995E-4</v>
+        <v>5.6912360014393926E-4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B35" s="3">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C35" s="4">
-        <v>5.546797183342278E-4</v>
+        <v>5.620095762424171E-4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C36" s="4">
-        <v>5.5050919763743877E-4</v>
+        <v>5.3711043437942863E-4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4">
-        <v>4.9629242857918143E-4</v>
+        <v>4.6596996253356338E-4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4">
-        <v>4.6292820479720831E-4</v>
+        <v>4.3751377961598337E-4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C39" s="4">
-        <v>4.6292820479720831E-4</v>
+        <v>4.2684271465986967E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C40" s="4">
-        <v>4.5875768410041928E-4</v>
+        <v>4.1972866165451705E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C41" s="4">
-        <v>4.462461220100522E-4</v>
+        <v>4.1261463775299489E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4">
-        <v>4.2539348942227662E-4</v>
+        <v>3.6637333687394857E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C43" s="4">
-        <v>3.2530090538784862E-4</v>
+        <v>3.6281629581935704E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C44" s="4">
-        <v>3.2113038469105959E-4</v>
+        <v>3.5214523086324334E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C45" s="4">
-        <v>3.00277752103284E-4</v>
+        <v>3.3080310095101595E-4</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B46" s="3">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4">
-        <v>2.9193671070970595E-4</v>
+        <v>3.2013203599490225E-4</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" s="3">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4">
-        <v>2.835956693161279E-4</v>
+        <v>2.6321967015974224E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3">
         <v>68</v>
       </c>
       <c r="C48" s="4">
-        <v>2.835956693161279E-4</v>
+        <v>2.4187754024751484E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
         <v>62</v>
       </c>
       <c r="C49" s="4">
-        <v>2.5857251603156328E-4</v>
+        <v>2.2053539578337222E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B50" s="3">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>2.1269674471113831E-4</v>
+        <v>2.1342135732993484E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C51" s="4">
-        <v>2.0435568876564503E-4</v>
+        <v>2.0275029237382114E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B52" s="3">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4">
-        <v>2.00185168068856E-4</v>
+        <v>1.9919326587114483E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B53" s="3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C53" s="4">
-        <v>2.00185168068856E-4</v>
+        <v>1.8852220091503114E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
-        <v>1.9184412667527795E-4</v>
+        <v>1.8852220091503114E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C55" s="4">
-        <v>1.9184412667527795E-4</v>
+        <v>1.8852220091503114E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B56" s="3">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C56" s="4">
-        <v>1.7933255003299564E-4</v>
+        <v>1.7785113595891744E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C57" s="4">
-        <v>1.7516202933620661E-4</v>
+        <v>1.7073708295356482E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B58" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C58" s="4">
-        <v>1.6682097339071333E-4</v>
+        <v>1.7073708295356482E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C59" s="4">
-        <v>1.5847993199713528E-4</v>
+        <v>1.6718005645088851E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B60" s="3">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C60" s="4">
-        <v>1.50138876051642E-4</v>
+        <v>1.6718005645088851E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C61" s="4">
-        <v>1.3762729940935969E-4</v>
+        <v>1.6362304450012743E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B62" s="3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C62" s="4">
-        <v>1.3762729940935969E-4</v>
+        <v>1.5650899149477482E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C63" s="4">
-        <v>1.3345677871257067E-4</v>
+        <v>1.4939495304133743E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1499,32 +1524,32 @@
         <v>29</v>
       </c>
       <c r="B64" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C64" s="4">
-        <v>1.2511573731899261E-4</v>
+        <v>1.4228090003598481E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="B65" s="3">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C65" s="4">
-        <v>1.2094520934624597E-4</v>
+        <v>1.4228090003598481E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B66" s="3">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C66" s="4">
-        <v>1.1677468137349933E-4</v>
+        <v>1.3160983507987112E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1532,98 +1557,98 @@
         <v>67</v>
       </c>
       <c r="B67" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C67" s="4">
-        <v>1.0426311200717464E-4</v>
+        <v>1.2449579662643373E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B68" s="3">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C68" s="4">
-        <v>1.00092584034428E-4</v>
+        <v>1.2449579662643373E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B69" s="3">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C69" s="4">
-        <v>9.5922063337638974E-5</v>
+        <v>1.2093877012375742E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="B70" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C70" s="4">
-        <v>9.5922063337638974E-5</v>
+        <v>1.1738174362108111E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B71" s="3">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C71" s="4">
-        <v>9.1751535364892334E-5</v>
+        <v>1.1382472439436242E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B72" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C72" s="4">
-        <v>9.1751535364892334E-5</v>
+        <v>1.1026769789168611E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B73" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4">
-        <v>8.3410486695356667E-5</v>
+        <v>1.0315365943824872E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B74" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C74" s="4">
-        <v>7.9239965998567641E-5</v>
+        <v>9.6039613708853722E-5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4">
-        <v>6.6728389356285334E-5</v>
+        <v>9.6039613708853722E-5</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1631,76 +1656,76 @@
         <v>69</v>
       </c>
       <c r="B76" s="3">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C76" s="4">
-        <v>6.2557868659496307E-5</v>
+        <v>9.6039613708853722E-5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="B77" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C77" s="4">
-        <v>6.2557868659496307E-5</v>
+        <v>8.1811522250063717E-5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B78" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C78" s="4">
-        <v>6.2557868659496307E-5</v>
+        <v>7.8254495747387409E-5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" s="4">
-        <v>5.8387340686749667E-5</v>
+        <v>6.7583430791273713E-5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B80" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C80" s="4">
-        <v>5.4216816351981834E-5</v>
+        <v>6.7583430791273713E-5</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B81" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C81" s="4">
-        <v>5.0046292017214E-5</v>
+        <v>6.4026404288597405E-5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B82" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C82" s="4">
-        <v>4.1705243347678334E-5</v>
+        <v>5.691236219718121E-5</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1708,131 +1733,131 @@
         <v>85</v>
       </c>
       <c r="B83" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4">
-        <v>3.75347190129105E-5</v>
+        <v>5.3355339332483709E-5</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B84" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C84" s="4">
-        <v>3.75347190129105E-5</v>
+        <v>5.3355339332483709E-5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B85" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C85" s="4">
-        <v>3.75347190129105E-5</v>
+        <v>4.9798316467786208E-5</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B86" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C86" s="4">
-        <v>3.75347190129105E-5</v>
+        <v>4.6241293603088707E-5</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B87" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C87" s="4">
-        <v>3.3364194678142667E-5</v>
+        <v>4.6241293603088707E-5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B88" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C88" s="4">
-        <v>2.9193670343374833E-5</v>
+        <v>4.6241293603088707E-5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B89" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C89" s="4">
-        <v>2.9193670343374833E-5</v>
+        <v>4.2684270738391206E-5</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B90" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4">
-        <v>2.9193670343374833E-5</v>
+        <v>3.9127247873693705E-5</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B91" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4">
-        <v>2.9193670343374833E-5</v>
+        <v>3.9127247873693705E-5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="B92" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92" s="4">
-        <v>2.5023146008607E-5</v>
+        <v>3.5570225008996204E-5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B93" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C93" s="4">
-        <v>2.5023146008607E-5</v>
+        <v>3.5570225008996204E-5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94" s="4">
-        <v>2.0852621673839167E-5</v>
+        <v>3.5570225008996204E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1840,542 +1865,652 @@
         <v>52</v>
       </c>
       <c r="B95" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C95" s="4">
-        <v>2.0852621673839167E-5</v>
+        <v>3.5570225008996204E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B96" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4">
-        <v>2.0852621673839167E-5</v>
+        <v>3.2013202144298702E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B97" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4">
-        <v>2.0852621673839167E-5</v>
+        <v>3.2013202144298702E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C98" s="4">
-        <v>1.6682097339071333E-5</v>
+        <v>2.8456181098590605E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B99" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99" s="4">
-        <v>1.6682097339071333E-5</v>
+        <v>2.4899158233893104E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B100" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4">
-        <v>1.6682097339071333E-5</v>
+        <v>2.4899158233893104E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B101" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4">
-        <v>1.6682097339071333E-5</v>
+        <v>2.4899158233893104E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C102" s="4">
-        <v>1.6682097339071333E-5</v>
+        <v>2.1342135369195603E-5</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B103" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C103" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>2.1342135369195603E-5</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B104" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C104" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>2.1342135369195603E-5</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C105" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>2.1342135369195603E-5</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B106" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B107" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C107" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B108" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B109" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C109" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B110" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B111" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.7785112504498102E-5</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B112" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C112" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.4228090549295302E-5</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="B113" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4">
-        <v>1.25115730043035E-5</v>
+        <v>1.4228090549295302E-5</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.4228090549295302E-5</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.4228090549295302E-5</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B116" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B119" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B120" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C120" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B121" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B122" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C122" s="4">
-        <v>8.3410486695356667E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B123" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C123" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B124" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B125" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B126" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>1.0671067684597801E-5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B128" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B129" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B131" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B132" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B133" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="B135" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>7.1140452746476512E-6</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
       <c r="C137" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
       <c r="C138" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
       <c r="C139" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
       <c r="C140" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
       <c r="C141" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
       <c r="C142" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
       <c r="C143" s="4">
-        <v>4.1705243347678334E-6</v>
+        <v>3.5570226373238256E-6</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
+      <c r="C145" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
+      <c r="C146" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1</v>
+      </c>
+      <c r="C147" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
+      <c r="C148" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1</v>
+      </c>
+      <c r="C150" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1</v>
+      </c>
+      <c r="C151" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1</v>
+      </c>
+      <c r="C152" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3.5570226373238256E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>79</v>
       </c>
     </row>
